--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.6997995117224943</v>
+        <v>0.6997995117224864</v>
       </c>
       <c r="D2">
-        <v>1.007763436005617</v>
+        <v>1.007763436005616</v>
       </c>
       <c r="E2">
-        <v>0.7462927997327056</v>
+        <v>0.746292799732699</v>
       </c>
       <c r="F2">
-        <v>0.7264653386582078</v>
+        <v>0.7264653386581998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.021239512291062</v>
+        <v>1.021239512291061</v>
       </c>
       <c r="J2">
-        <v>0.7371008538608533</v>
+        <v>0.737100853860846</v>
       </c>
       <c r="K2">
-        <v>1.019115663101105</v>
+        <v>1.019115663101104</v>
       </c>
       <c r="L2">
-        <v>0.7629525298379104</v>
+        <v>0.762952529837904</v>
       </c>
       <c r="M2">
-        <v>0.7437452364692289</v>
+        <v>0.7437452364692214</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.7927059459996412</v>
+        <v>0.7927059459996414</v>
       </c>
       <c r="D3">
         <v>1.02121708050005</v>
@@ -468,7 +468,7 @@
         <v>0.8252649189352529</v>
       </c>
       <c r="F3">
-        <v>0.8168458400275543</v>
+        <v>0.8168458400275549</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.031585495682667</v>
       </c>
       <c r="L3">
-        <v>0.8387593897672354</v>
+        <v>0.8387593897672353</v>
       </c>
       <c r="M3">
-        <v>0.8305192209799566</v>
+        <v>0.830519220979957</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8263421540527723</v>
+        <v>0.8263421540527747</v>
       </c>
       <c r="D4">
-        <v>1.02679357950079</v>
+        <v>1.026793579500791</v>
       </c>
       <c r="E4">
-        <v>0.8540837146898373</v>
+        <v>0.8540837146898392</v>
       </c>
       <c r="F4">
-        <v>0.8500710447623214</v>
+        <v>0.8500710447623239</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.037490835530045</v>
       </c>
       <c r="J4">
-        <v>0.8515424558645334</v>
+        <v>0.8515424558645355</v>
       </c>
       <c r="K4">
         <v>1.036579036577753</v>
       </c>
       <c r="L4">
-        <v>0.8663336027251947</v>
+        <v>0.8663336027251967</v>
       </c>
       <c r="M4">
-        <v>0.862393672879799</v>
+        <v>0.8623936728798016</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8383202841853802</v>
+        <v>0.8383202841853843</v>
       </c>
       <c r="D5">
         <v>1.028862039393347</v>
       </c>
       <c r="E5">
-        <v>0.8643685098112097</v>
+        <v>0.8643685098112134</v>
       </c>
       <c r="F5">
-        <v>0.8619296764306809</v>
+        <v>0.861929676430685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039139850260871</v>
+        <v>1.039139850260872</v>
       </c>
       <c r="J5">
-        <v>0.862406680884794</v>
+        <v>0.862406680884798</v>
       </c>
       <c r="K5">
         <v>1.038407980321088</v>
       </c>
       <c r="L5">
-        <v>0.8761608479076989</v>
+        <v>0.8761608479077024</v>
       </c>
       <c r="M5">
-        <v>0.873763647724709</v>
+        <v>0.8737636477247129</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8402378946965986</v>
+        <v>0.8402378946966</v>
       </c>
       <c r="D6">
-        <v>1.029197057022478</v>
+        <v>1.029197057022479</v>
       </c>
       <c r="E6">
-        <v>0.8660160118490401</v>
+        <v>0.8660160118490412</v>
       </c>
       <c r="F6">
-        <v>0.8638288835233473</v>
+        <v>0.8638288835233499</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039404968128728</v>
+        <v>1.039404968128729</v>
       </c>
       <c r="J6">
-        <v>0.8641460459332446</v>
+        <v>0.8641460459332461</v>
       </c>
       <c r="K6">
-        <v>1.038703042790817</v>
+        <v>1.038703042790818</v>
       </c>
       <c r="L6">
-        <v>0.8777343617191634</v>
+        <v>0.8777343617191644</v>
       </c>
       <c r="M6">
-        <v>0.8755842053338553</v>
+        <v>0.8755842053338579</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.826509033743088</v>
+        <v>0.8265090337430885</v>
       </c>
       <c r="D7">
         <v>1.026822107385977</v>
       </c>
       <c r="E7">
-        <v>0.8542269280730004</v>
+        <v>0.8542269280730008</v>
       </c>
       <c r="F7">
-        <v>0.8502361933993082</v>
+        <v>0.8502361933993089</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.037513721145889</v>
       </c>
       <c r="J7">
-        <v>0.8516938075188427</v>
+        <v>0.8516938075188432</v>
       </c>
       <c r="K7">
         <v>1.036604345441428</v>
       </c>
       <c r="L7">
-        <v>0.8664704952032442</v>
+        <v>0.8664704952032447</v>
       </c>
       <c r="M7">
-        <v>0.8625520434643092</v>
+        <v>0.8625520434643098</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D8">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E8">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F8">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J8">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K8">
         <v>1.024725099853258</v>
       </c>
       <c r="L8">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M8">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D9">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E9">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F9">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J9">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K9">
         <v>1.024725099853258</v>
       </c>
       <c r="L9">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M9">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D10">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E10">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F10">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J10">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K10">
         <v>1.024725099853258</v>
       </c>
       <c r="L10">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M10">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D11">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E11">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F11">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J11">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K11">
         <v>1.024725099853258</v>
       </c>
       <c r="L11">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M11">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D12">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E12">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F12">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J12">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K12">
         <v>1.024725099853258</v>
       </c>
       <c r="L12">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M12">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D13">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E13">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F13">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J13">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K13">
         <v>1.024725099853258</v>
       </c>
       <c r="L13">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M13">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D14">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E14">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F14">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J14">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K14">
         <v>1.024725099853258</v>
       </c>
       <c r="L14">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M14">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D15">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E15">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F15">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J15">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K15">
         <v>1.024725099853258</v>
       </c>
       <c r="L15">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M15">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D16">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E16">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F16">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J16">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K16">
         <v>1.024725099853258</v>
       </c>
       <c r="L16">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M16">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D17">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E17">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F17">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J17">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K17">
         <v>1.024725099853258</v>
       </c>
       <c r="L17">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M17">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D18">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E18">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F18">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J18">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K18">
         <v>1.024725099853258</v>
       </c>
       <c r="L18">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M18">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D19">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E19">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F19">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J19">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K19">
         <v>1.024725099853258</v>
       </c>
       <c r="L19">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M19">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D20">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E20">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F20">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J20">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K20">
         <v>1.024725099853258</v>
       </c>
       <c r="L20">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M20">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D21">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E21">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F21">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J21">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K21">
         <v>1.024725099853258</v>
       </c>
       <c r="L21">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M21">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D22">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E22">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F22">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J22">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K22">
         <v>1.024725099853258</v>
       </c>
       <c r="L22">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M22">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D23">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E23">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F23">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J23">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K23">
         <v>1.024725099853258</v>
       </c>
       <c r="L23">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M23">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D24">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E24">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F24">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J24">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K24">
         <v>1.024725099853258</v>
       </c>
       <c r="L24">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M24">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7435679668216563</v>
+        <v>0.7435679668216584</v>
       </c>
       <c r="D25">
-        <v>1.013727925867234</v>
+        <v>1.013727925867235</v>
       </c>
       <c r="E25">
-        <v>0.7833633593012166</v>
+        <v>0.7833633593012183</v>
       </c>
       <c r="F25">
-        <v>0.7686931647576871</v>
+        <v>0.7686931647576893</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J25">
-        <v>0.7765741366775467</v>
+        <v>0.7765741366775484</v>
       </c>
       <c r="K25">
         <v>1.024725099853258</v>
       </c>
       <c r="L25">
-        <v>0.7985786025131844</v>
+        <v>0.7985786025131861</v>
       </c>
       <c r="M25">
-        <v>0.7842938668591549</v>
+        <v>0.7842938668591573</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.6997995117224864</v>
+        <v>0.6997995117224943</v>
       </c>
       <c r="D2">
-        <v>1.007763436005616</v>
+        <v>1.007763436005617</v>
       </c>
       <c r="E2">
-        <v>0.746292799732699</v>
+        <v>0.7462927997327056</v>
       </c>
       <c r="F2">
-        <v>0.7264653386581998</v>
+        <v>0.7264653386582078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.021239512291061</v>
+        <v>1.021239512291062</v>
       </c>
       <c r="J2">
-        <v>0.737100853860846</v>
+        <v>0.7371008538608533</v>
       </c>
       <c r="K2">
-        <v>1.019115663101104</v>
+        <v>1.019115663101105</v>
       </c>
       <c r="L2">
-        <v>0.762952529837904</v>
+        <v>0.7629525298379104</v>
       </c>
       <c r="M2">
-        <v>0.7437452364692214</v>
+        <v>0.7437452364692289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.7927059459996414</v>
+        <v>0.7927059459996412</v>
       </c>
       <c r="D3">
         <v>1.02121708050005</v>
@@ -468,7 +468,7 @@
         <v>0.8252649189352529</v>
       </c>
       <c r="F3">
-        <v>0.8168458400275549</v>
+        <v>0.8168458400275543</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.031585495682667</v>
       </c>
       <c r="L3">
-        <v>0.8387593897672353</v>
+        <v>0.8387593897672354</v>
       </c>
       <c r="M3">
-        <v>0.830519220979957</v>
+        <v>0.8305192209799566</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8263421540527747</v>
+        <v>0.8263421540527723</v>
       </c>
       <c r="D4">
-        <v>1.026793579500791</v>
+        <v>1.02679357950079</v>
       </c>
       <c r="E4">
-        <v>0.8540837146898392</v>
+        <v>0.8540837146898373</v>
       </c>
       <c r="F4">
-        <v>0.8500710447623239</v>
+        <v>0.8500710447623214</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.037490835530045</v>
       </c>
       <c r="J4">
-        <v>0.8515424558645355</v>
+        <v>0.8515424558645334</v>
       </c>
       <c r="K4">
         <v>1.036579036577753</v>
       </c>
       <c r="L4">
-        <v>0.8663336027251967</v>
+        <v>0.8663336027251947</v>
       </c>
       <c r="M4">
-        <v>0.8623936728798016</v>
+        <v>0.862393672879799</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8383202841853843</v>
+        <v>0.8383202841853802</v>
       </c>
       <c r="D5">
         <v>1.028862039393347</v>
       </c>
       <c r="E5">
-        <v>0.8643685098112134</v>
+        <v>0.8643685098112097</v>
       </c>
       <c r="F5">
-        <v>0.861929676430685</v>
+        <v>0.8619296764306809</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039139850260872</v>
+        <v>1.039139850260871</v>
       </c>
       <c r="J5">
-        <v>0.862406680884798</v>
+        <v>0.862406680884794</v>
       </c>
       <c r="K5">
         <v>1.038407980321088</v>
       </c>
       <c r="L5">
-        <v>0.8761608479077024</v>
+        <v>0.8761608479076989</v>
       </c>
       <c r="M5">
-        <v>0.8737636477247129</v>
+        <v>0.873763647724709</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8402378946966</v>
+        <v>0.8402378946965986</v>
       </c>
       <c r="D6">
-        <v>1.029197057022479</v>
+        <v>1.029197057022478</v>
       </c>
       <c r="E6">
-        <v>0.8660160118490412</v>
+        <v>0.8660160118490401</v>
       </c>
       <c r="F6">
-        <v>0.8638288835233499</v>
+        <v>0.8638288835233473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039404968128729</v>
+        <v>1.039404968128728</v>
       </c>
       <c r="J6">
-        <v>0.8641460459332461</v>
+        <v>0.8641460459332446</v>
       </c>
       <c r="K6">
-        <v>1.038703042790818</v>
+        <v>1.038703042790817</v>
       </c>
       <c r="L6">
-        <v>0.8777343617191644</v>
+        <v>0.8777343617191634</v>
       </c>
       <c r="M6">
-        <v>0.8755842053338579</v>
+        <v>0.8755842053338553</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8265090337430885</v>
+        <v>0.826509033743088</v>
       </c>
       <c r="D7">
         <v>1.026822107385977</v>
       </c>
       <c r="E7">
-        <v>0.8542269280730008</v>
+        <v>0.8542269280730004</v>
       </c>
       <c r="F7">
-        <v>0.8502361933993089</v>
+        <v>0.8502361933993082</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.037513721145889</v>
       </c>
       <c r="J7">
-        <v>0.8516938075188432</v>
+        <v>0.8516938075188427</v>
       </c>
       <c r="K7">
         <v>1.036604345441428</v>
       </c>
       <c r="L7">
-        <v>0.8664704952032447</v>
+        <v>0.8664704952032442</v>
       </c>
       <c r="M7">
-        <v>0.8625520434643098</v>
+        <v>0.8625520434643092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D8">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E8">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F8">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J8">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K8">
         <v>1.024725099853258</v>
       </c>
       <c r="L8">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M8">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D9">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E9">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F9">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J9">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K9">
         <v>1.024725099853258</v>
       </c>
       <c r="L9">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M9">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D10">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E10">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F10">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J10">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K10">
         <v>1.024725099853258</v>
       </c>
       <c r="L10">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M10">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D11">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E11">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F11">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J11">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K11">
         <v>1.024725099853258</v>
       </c>
       <c r="L11">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M11">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D12">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E12">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F12">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J12">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K12">
         <v>1.024725099853258</v>
       </c>
       <c r="L12">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M12">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D13">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E13">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F13">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J13">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K13">
         <v>1.024725099853258</v>
       </c>
       <c r="L13">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M13">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D14">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E14">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F14">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J14">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K14">
         <v>1.024725099853258</v>
       </c>
       <c r="L14">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M14">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D15">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E15">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F15">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J15">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K15">
         <v>1.024725099853258</v>
       </c>
       <c r="L15">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M15">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D16">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E16">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F16">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J16">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K16">
         <v>1.024725099853258</v>
       </c>
       <c r="L16">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M16">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D17">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E17">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F17">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J17">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K17">
         <v>1.024725099853258</v>
       </c>
       <c r="L17">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M17">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D18">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E18">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F18">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J18">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K18">
         <v>1.024725099853258</v>
       </c>
       <c r="L18">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M18">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D19">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E19">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F19">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J19">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K19">
         <v>1.024725099853258</v>
       </c>
       <c r="L19">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M19">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D20">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E20">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F20">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J20">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K20">
         <v>1.024725099853258</v>
       </c>
       <c r="L20">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M20">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D21">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E21">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F21">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J21">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K21">
         <v>1.024725099853258</v>
       </c>
       <c r="L21">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M21">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D22">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E22">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F22">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J22">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K22">
         <v>1.024725099853258</v>
       </c>
       <c r="L22">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M22">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D23">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E23">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F23">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J23">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K23">
         <v>1.024725099853258</v>
       </c>
       <c r="L23">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M23">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D24">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E24">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F24">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J24">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K24">
         <v>1.024725099853258</v>
       </c>
       <c r="L24">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M24">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7435679668216584</v>
+        <v>0.7435679668216563</v>
       </c>
       <c r="D25">
-        <v>1.013727925867235</v>
+        <v>1.013727925867234</v>
       </c>
       <c r="E25">
-        <v>0.7833633593012183</v>
+        <v>0.7833633593012166</v>
       </c>
       <c r="F25">
-        <v>0.7686931647576893</v>
+        <v>0.7686931647576871</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.026564189342697</v>
       </c>
       <c r="J25">
-        <v>0.7765741366775484</v>
+        <v>0.7765741366775467</v>
       </c>
       <c r="K25">
         <v>1.024725099853258</v>
       </c>
       <c r="L25">
-        <v>0.7985786025131861</v>
+        <v>0.7985786025131844</v>
       </c>
       <c r="M25">
-        <v>0.7842938668591573</v>
+        <v>0.7842938668591549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.6997995117224943</v>
+        <v>0.7170509950374132</v>
       </c>
       <c r="D2">
-        <v>1.007763436005617</v>
+        <v>1.009483238344941</v>
       </c>
       <c r="E2">
-        <v>0.7462927997327056</v>
+        <v>0.7608793889206082</v>
       </c>
       <c r="F2">
-        <v>0.7264653386582078</v>
+        <v>0.7413425397770598</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.021239512291062</v>
+        <v>1.022909326660383</v>
       </c>
       <c r="J2">
-        <v>0.7371008538608533</v>
+        <v>0.7529579961924028</v>
       </c>
       <c r="K2">
-        <v>1.019115663101105</v>
+        <v>1.0208120188511</v>
       </c>
       <c r="L2">
-        <v>0.7629525298379104</v>
+        <v>0.7771110715198648</v>
       </c>
       <c r="M2">
-        <v>0.7437452364692289</v>
+        <v>0.758152821430613</v>
+      </c>
+      <c r="N2">
+        <v>0.7540272829124853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.7927059459996412</v>
+        <v>0.8014985864608044</v>
       </c>
       <c r="D3">
-        <v>1.02121708050005</v>
+        <v>1.021996373483075</v>
       </c>
       <c r="E3">
-        <v>0.8252649189352529</v>
+        <v>0.8327911565243908</v>
       </c>
       <c r="F3">
-        <v>0.8168458400275543</v>
+        <v>0.823816384737976</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032938892760687</v>
+        <v>1.033697563670847</v>
       </c>
       <c r="J3">
-        <v>0.8210469857600394</v>
+        <v>0.8293858738496629</v>
       </c>
       <c r="K3">
-        <v>1.031585495682667</v>
+        <v>1.032355334726642</v>
       </c>
       <c r="L3">
-        <v>0.8387593897672354</v>
+        <v>0.8461297284575235</v>
       </c>
       <c r="M3">
-        <v>0.8305192209799566</v>
+        <v>0.83734129312966</v>
+      </c>
+      <c r="N3">
+        <v>0.8305636969224188</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8263421540527723</v>
+        <v>0.8341793800210099</v>
       </c>
       <c r="D4">
-        <v>1.02679357950079</v>
+        <v>1.0274615395267</v>
       </c>
       <c r="E4">
-        <v>0.8540837146898373</v>
+        <v>0.8608132570312479</v>
       </c>
       <c r="F4">
-        <v>0.8500710447623214</v>
+        <v>0.8561264029516171</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037490835530045</v>
+        <v>1.038142086261778</v>
       </c>
       <c r="J4">
-        <v>0.8515424558645334</v>
+        <v>0.8590434681588078</v>
       </c>
       <c r="K4">
-        <v>1.036579036577753</v>
+        <v>1.037239451410987</v>
       </c>
       <c r="L4">
-        <v>0.8663336027251947</v>
+        <v>0.8729431286473104</v>
       </c>
       <c r="M4">
-        <v>0.862393672879799</v>
+        <v>0.8683396021175001</v>
+      </c>
+      <c r="N4">
+        <v>0.8602634084172562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8383202841853802</v>
+        <v>0.8459053874201281</v>
       </c>
       <c r="D5">
-        <v>1.028862039393347</v>
+        <v>1.029499994215641</v>
       </c>
       <c r="E5">
-        <v>0.8643685098112097</v>
+        <v>0.8708880284117455</v>
       </c>
       <c r="F5">
-        <v>0.8619296764306809</v>
+        <v>0.867740789193753</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039139850260871</v>
+        <v>1.039762216790606</v>
       </c>
       <c r="J5">
-        <v>0.862406680884794</v>
+        <v>0.8696882247857604</v>
       </c>
       <c r="K5">
-        <v>1.038407980321088</v>
+        <v>1.039038942871334</v>
       </c>
       <c r="L5">
-        <v>0.8761608479076989</v>
+        <v>0.8825705471078394</v>
       </c>
       <c r="M5">
-        <v>0.873763647724709</v>
+        <v>0.8794760565062023</v>
+      </c>
+      <c r="N5">
+        <v>0.8709232818195897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8402378946965986</v>
+        <v>0.8477859291413516</v>
       </c>
       <c r="D6">
-        <v>1.029197057022478</v>
+        <v>1.029830569780035</v>
       </c>
       <c r="E6">
-        <v>0.8660160118490401</v>
+        <v>0.8725046641009195</v>
       </c>
       <c r="F6">
-        <v>0.8638288835233473</v>
+        <v>0.8696039507416876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039404968128728</v>
+        <v>1.04002306204218</v>
       </c>
       <c r="J6">
-        <v>0.8641460459332446</v>
+        <v>0.8713954068295648</v>
       </c>
       <c r="K6">
-        <v>1.038703042790817</v>
+        <v>1.039329647156481</v>
       </c>
       <c r="L6">
-        <v>0.8777343617191634</v>
+        <v>0.8841147313494253</v>
       </c>
       <c r="M6">
-        <v>0.8755842053338553</v>
+        <v>0.8812621678014521</v>
+      </c>
+      <c r="N6">
+        <v>0.8726328882577128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.826509033743088</v>
+        <v>0.8343424858544692</v>
       </c>
       <c r="D7">
-        <v>1.026822107385977</v>
+        <v>1.02748962072885</v>
       </c>
       <c r="E7">
-        <v>0.8542269280730004</v>
+        <v>0.860953325741954</v>
       </c>
       <c r="F7">
-        <v>0.8502361933993082</v>
+        <v>0.8562879064182451</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037513721145889</v>
+        <v>1.038164541610776</v>
       </c>
       <c r="J7">
-        <v>0.8516938075188427</v>
+        <v>0.8591915280673589</v>
       </c>
       <c r="K7">
-        <v>1.036604345441428</v>
+        <v>1.037264321665257</v>
       </c>
       <c r="L7">
-        <v>0.8664704952032442</v>
+        <v>0.873077026127255</v>
       </c>
       <c r="M7">
-        <v>0.8625520434643092</v>
+        <v>0.8684944863184402</v>
+      </c>
+      <c r="N7">
+        <v>0.8604116785878605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D8">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E8">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F8">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J8">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K8">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L8">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M8">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N8">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D9">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E9">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F9">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J9">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K9">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L9">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M9">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N9">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D10">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E10">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F10">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J10">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K10">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L10">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M10">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N10">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D11">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E11">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F11">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J11">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K11">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L11">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M11">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N11">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D12">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E12">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F12">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J12">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K12">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L12">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M12">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N12">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D13">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E13">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F13">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J13">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K13">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L13">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M13">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N13">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D14">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E14">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F14">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J14">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K14">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L14">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M14">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N14">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D15">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E15">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F15">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J15">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K15">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L15">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M15">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N15">
+        <v>0.7883568634284406</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D16">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E16">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F16">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J16">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K16">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L16">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M16">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N16">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D17">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E17">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F17">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J17">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K17">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L17">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M17">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N17">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D18">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E18">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F18">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J18">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K18">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L18">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M18">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N18">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D19">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E19">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F19">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J19">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K19">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L19">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M19">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N19">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D20">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E20">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F20">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J20">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K20">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L20">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M20">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N20">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D21">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E21">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F21">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J21">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K21">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L21">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M21">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N21">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D22">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E22">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F22">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J22">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K22">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L22">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M22">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N22">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D23">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E23">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F23">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J23">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K23">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L23">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M23">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N23">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D24">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E24">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F24">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J24">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K24">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L24">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M24">
-        <v>0.7842938668591549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N24">
+        <v>0.7883568634284406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7435679668216563</v>
+        <v>0.7549879893788812</v>
       </c>
       <c r="D25">
-        <v>1.013727925867234</v>
+        <v>1.01480407889426</v>
       </c>
       <c r="E25">
-        <v>0.7833633593012166</v>
+        <v>0.7930824309428054</v>
       </c>
       <c r="F25">
-        <v>0.7686931647576871</v>
+        <v>0.7781401897217237</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026564189342697</v>
+        <v>1.027610109610293</v>
       </c>
       <c r="J25">
-        <v>0.7765741366775467</v>
+        <v>0.787238893901537</v>
       </c>
       <c r="K25">
-        <v>1.024725099853258</v>
+        <v>1.025787185017624</v>
       </c>
       <c r="L25">
-        <v>0.7985786025131844</v>
+        <v>0.8080528797190815</v>
       </c>
       <c r="M25">
-        <v>0.7842938668591549</v>
+        <v>0.793490413948697</v>
+      </c>
+      <c r="N25">
+        <v>0.7883568634284406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -417,984 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.7170509950374132</v>
-      </c>
-      <c r="D2">
-        <v>1.009483238344941</v>
+        <v>0.8212647040254362</v>
       </c>
       <c r="E2">
-        <v>0.7608793889206082</v>
+        <v>0.8487426829777872</v>
       </c>
       <c r="F2">
-        <v>0.7413425397770598</v>
+        <v>0.7851723343779867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.022909326660383</v>
-      </c>
       <c r="J2">
-        <v>0.7529579961924028</v>
-      </c>
-      <c r="K2">
-        <v>1.0208120188511</v>
+        <v>0.8505172759191576</v>
       </c>
       <c r="L2">
-        <v>0.7771110715198648</v>
+        <v>0.8628069290175773</v>
       </c>
       <c r="M2">
-        <v>0.758152821430613</v>
+        <v>0.8007389155749183</v>
       </c>
       <c r="N2">
-        <v>0.7540272829124853</v>
+        <v>0.8517251080066579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.8014985864608044</v>
-      </c>
-      <c r="D3">
-        <v>1.021996373483075</v>
+        <v>0.8522449237830827</v>
       </c>
       <c r="E3">
-        <v>0.8327911565243908</v>
+        <v>0.8754629390471033</v>
       </c>
       <c r="F3">
-        <v>0.823816384737976</v>
+        <v>0.8225143627199064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.033697563670847</v>
-      </c>
       <c r="J3">
-        <v>0.8293858738496629</v>
-      </c>
-      <c r="K3">
-        <v>1.032355334726642</v>
+        <v>0.8777722704907189</v>
       </c>
       <c r="L3">
-        <v>0.8461297284575235</v>
+        <v>0.8879834354825406</v>
       </c>
       <c r="M3">
-        <v>0.83734129312966</v>
+        <v>0.8360667511767637</v>
       </c>
       <c r="N3">
-        <v>0.8305636969224188</v>
+        <v>0.8790188077967024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.8341793800210099</v>
-      </c>
-      <c r="D4">
-        <v>1.0274615395267</v>
+        <v>0.8693373729004608</v>
       </c>
       <c r="E4">
-        <v>0.8608132570312479</v>
+        <v>0.8902465704005336</v>
       </c>
       <c r="F4">
-        <v>0.8561264029516171</v>
+        <v>0.8429819221268897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.038142086261778</v>
-      </c>
       <c r="J4">
-        <v>0.8590434681588078</v>
-      </c>
-      <c r="K4">
-        <v>1.037239451410987</v>
+        <v>0.8927978325870557</v>
       </c>
       <c r="L4">
-        <v>0.8729431286473104</v>
+        <v>0.9018789010563929</v>
       </c>
       <c r="M4">
-        <v>0.8683396021175001</v>
+        <v>0.8554352674505432</v>
       </c>
       <c r="N4">
-        <v>0.8602634084172562</v>
+        <v>0.894065707914672</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.8459053874201281</v>
-      </c>
-      <c r="D5">
-        <v>1.029499994215641</v>
+        <v>0.8760090274153621</v>
       </c>
       <c r="E5">
-        <v>0.8708880284117455</v>
+        <v>0.896023888106076</v>
       </c>
       <c r="F5">
-        <v>0.867740789193753</v>
+        <v>0.8509502807883458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.039762216790606</v>
-      </c>
       <c r="J5">
-        <v>0.8696882247857604</v>
-      </c>
-      <c r="K5">
-        <v>1.039038942871334</v>
+        <v>0.8986595076481348</v>
       </c>
       <c r="L5">
-        <v>0.8825705471078394</v>
+        <v>0.9073021158686155</v>
       </c>
       <c r="M5">
-        <v>0.8794760565062023</v>
+        <v>0.8629755145695347</v>
       </c>
       <c r="N5">
-        <v>0.8709232818195897</v>
+        <v>0.8999357072266813</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.8477859291413516</v>
-      </c>
-      <c r="D6">
-        <v>1.029830569780035</v>
+        <v>0.8771029473463783</v>
       </c>
       <c r="E6">
-        <v>0.8725046641009195</v>
+        <v>0.8969715067980886</v>
       </c>
       <c r="F6">
-        <v>0.8696039507416876</v>
+        <v>0.8522558259713837</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.04002306204218</v>
-      </c>
       <c r="J6">
-        <v>0.8713954068295648</v>
-      </c>
-      <c r="K6">
-        <v>1.039329647156481</v>
+        <v>0.8996204196354849</v>
       </c>
       <c r="L6">
-        <v>0.8841147313494253</v>
+        <v>0.9081912636692474</v>
       </c>
       <c r="M6">
-        <v>0.8812621678014521</v>
+        <v>0.8642108758719996</v>
       </c>
       <c r="N6">
-        <v>0.8726328882577128</v>
+        <v>0.9008979838192714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.8343424858544692</v>
-      </c>
-      <c r="D7">
-        <v>1.02748962072885</v>
+        <v>0.8694283561070996</v>
       </c>
       <c r="E7">
-        <v>0.860953325741954</v>
+        <v>0.8903253327705025</v>
       </c>
       <c r="F7">
-        <v>0.8562879064182451</v>
+        <v>0.8430906611212446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.038164541610776</v>
-      </c>
       <c r="J7">
-        <v>0.8591915280673589</v>
-      </c>
-      <c r="K7">
-        <v>1.037264321665257</v>
+        <v>0.8928777833200804</v>
       </c>
       <c r="L7">
-        <v>0.873077026127255</v>
+        <v>0.9019528630565182</v>
       </c>
       <c r="M7">
-        <v>0.8684944863184402</v>
+        <v>0.8555381665859727</v>
       </c>
       <c r="N7">
-        <v>0.8604116785878605</v>
+        <v>0.8941457721869082</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D8">
-        <v>1.01480407889426</v>
+        <v>0.8325038312869462</v>
       </c>
       <c r="E8">
-        <v>0.7930824309428054</v>
+        <v>0.8584240888761852</v>
       </c>
       <c r="F8">
-        <v>0.7781401897217237</v>
+        <v>0.7987612055303308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J8">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K8">
-        <v>1.025787185017624</v>
+        <v>0.8604072540861046</v>
       </c>
       <c r="L8">
-        <v>0.8080528797190815</v>
+        <v>0.8719378334226643</v>
       </c>
       <c r="M8">
-        <v>0.793490413948697</v>
+        <v>0.8135923286807202</v>
       </c>
       <c r="N8">
-        <v>0.7883568634284406</v>
+        <v>0.8616291310769986</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D9">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E9">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F9">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J9">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K9">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L9">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M9">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N9">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D10">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E10">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F10">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J10">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K10">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L10">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M10">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N10">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D11">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E11">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F11">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J11">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K11">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L11">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M11">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N11">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D12">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E12">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F12">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J12">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K12">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L12">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M12">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N12">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D13">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E13">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F13">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J13">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K13">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L13">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M13">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N13">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D14">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E14">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F14">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J14">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K14">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L14">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M14">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N14">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D15">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E15">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F15">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J15">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K15">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L15">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M15">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N15">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D16">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E16">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F16">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J16">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K16">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L16">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M16">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N16">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D17">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E17">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F17">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J17">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K17">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L17">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M17">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N17">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D18">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E18">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F18">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J18">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K18">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L18">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M18">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N18">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D19">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E19">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F19">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J19">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K19">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L19">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M19">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N19">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D20">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E20">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F20">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J20">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K20">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L20">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M20">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N20">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D21">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E21">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F21">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J21">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K21">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L21">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M21">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N21">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D22">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E22">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F22">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J22">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K22">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L22">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M22">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N22">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D23">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E23">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F23">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J23">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K23">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L23">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M23">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N23">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D24">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E24">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F24">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J24">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K24">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L24">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M24">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N24">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.7549879893788812</v>
-      </c>
-      <c r="D25">
-        <v>1.01480407889426</v>
+        <v>0.711186724522598</v>
       </c>
       <c r="E25">
-        <v>0.7930824309428054</v>
+        <v>0.7549096444727436</v>
       </c>
       <c r="F25">
-        <v>0.7781401897217237</v>
+        <v>0.6477345735192712</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.027610109610293</v>
-      </c>
       <c r="J25">
-        <v>0.787238893901537</v>
-      </c>
-      <c r="K25">
-        <v>1.025787185017624</v>
+        <v>0.7536333359112697</v>
       </c>
       <c r="L25">
-        <v>0.8080528797190815</v>
+        <v>0.7738021096556194</v>
       </c>
       <c r="M25">
-        <v>0.793490413948697</v>
+        <v>0.6712253208434675</v>
       </c>
       <c r="N25">
-        <v>0.7883568634284406</v>
+        <v>0.7547035816912155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -417,696 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.8212647040254362</v>
+        <v>0.978748690202874</v>
+      </c>
+      <c r="D2">
+        <v>1.032489959824373</v>
       </c>
       <c r="E2">
-        <v>0.8487426829777872</v>
+        <v>0.9959157319624561</v>
       </c>
       <c r="F2">
-        <v>0.7851723343779867</v>
+        <v>1.002086163069428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.051595234031259</v>
+      </c>
       <c r="J2">
-        <v>0.8505172759191576</v>
+        <v>1.001584150808145</v>
+      </c>
+      <c r="K2">
+        <v>1.043514480122228</v>
       </c>
       <c r="L2">
-        <v>0.8628069290175773</v>
+        <v>1.007432261926678</v>
       </c>
       <c r="M2">
-        <v>0.8007389155749183</v>
+        <v>1.013516510638589</v>
       </c>
       <c r="N2">
-        <v>0.8517251080066579</v>
+        <v>1.0030065151856</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.8522449237830827</v>
+        <v>0.9847740672674922</v>
+      </c>
+      <c r="D3">
+        <v>1.035053479094007</v>
       </c>
       <c r="E3">
-        <v>0.8754629390471033</v>
+        <v>1.001118686306192</v>
       </c>
       <c r="F3">
-        <v>0.8225143627199064</v>
+        <v>1.007992700173136</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.052740984937822</v>
+      </c>
       <c r="J3">
-        <v>0.8777722704907189</v>
+        <v>1.00568859171133</v>
+      </c>
+      <c r="K3">
+        <v>1.045256660653395</v>
       </c>
       <c r="L3">
-        <v>0.8879834354825406</v>
+        <v>1.011737273315924</v>
       </c>
       <c r="M3">
-        <v>0.8360667511767637</v>
+        <v>1.018524324259569</v>
       </c>
       <c r="N3">
-        <v>0.8790188077967024</v>
+        <v>1.007116784865654</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.8693373729004608</v>
+        <v>0.9885720381155523</v>
+      </c>
+      <c r="D4">
+        <v>1.036660693380238</v>
       </c>
       <c r="E4">
-        <v>0.8902465704005336</v>
+        <v>1.00440206731922</v>
       </c>
       <c r="F4">
-        <v>0.8429819221268897</v>
+        <v>1.011712408882927</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.05344048086709</v>
+      </c>
       <c r="J4">
-        <v>0.8927978325870557</v>
+        <v>1.008272659754346</v>
+      </c>
+      <c r="K4">
+        <v>1.046335908808849</v>
       </c>
       <c r="L4">
-        <v>0.9018789010563929</v>
+        <v>1.014447652032532</v>
       </c>
       <c r="M4">
-        <v>0.8554352674505432</v>
+        <v>1.021671501172499</v>
       </c>
       <c r="N4">
-        <v>0.894065707914672</v>
+        <v>1.009704522581688</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.8760090274153621</v>
+        <v>0.9901457079201728</v>
+      </c>
+      <c r="D5">
+        <v>1.037324304021739</v>
       </c>
       <c r="E5">
-        <v>0.896023888106076</v>
+        <v>1.005763346289992</v>
       </c>
       <c r="F5">
-        <v>0.8509502807883458</v>
+        <v>1.013252724597245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.053724701411492</v>
+      </c>
       <c r="J5">
-        <v>0.8986595076481348</v>
+        <v>1.009342561960873</v>
+      </c>
+      <c r="K5">
+        <v>1.046778352273792</v>
       </c>
       <c r="L5">
-        <v>0.9073021158686155</v>
+        <v>1.015569839217023</v>
       </c>
       <c r="M5">
-        <v>0.8629755145695347</v>
+        <v>1.022973132726363</v>
       </c>
       <c r="N5">
-        <v>0.8999357072266813</v>
+        <v>1.010775944172068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.8771029473463783</v>
+        <v>0.9904086172994045</v>
+      </c>
+      <c r="D6">
+        <v>1.037435027623388</v>
       </c>
       <c r="E6">
-        <v>0.8969715067980886</v>
+        <v>1.005990818207578</v>
       </c>
       <c r="F6">
-        <v>0.8522558259713837</v>
+        <v>1.01351000365531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.053771850780703</v>
+      </c>
       <c r="J6">
-        <v>0.8996204196354849</v>
+        <v>1.009521259884792</v>
+      </c>
+      <c r="K6">
+        <v>1.046851985920819</v>
       </c>
       <c r="L6">
-        <v>0.9081912636692474</v>
+        <v>1.015757268591244</v>
       </c>
       <c r="M6">
-        <v>0.8642108758719996</v>
+        <v>1.02319044933387</v>
       </c>
       <c r="N6">
-        <v>0.9008979838192714</v>
+        <v>1.010954895867535</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.8694283561070996</v>
+        <v>0.9885931544736176</v>
+      </c>
+      <c r="D7">
+        <v>1.036669607616292</v>
       </c>
       <c r="E7">
-        <v>0.8903253327705025</v>
+        <v>1.004420330542551</v>
       </c>
       <c r="F7">
-        <v>0.8430906611212446</v>
+        <v>1.011733081499198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.053444317101834</v>
+      </c>
       <c r="J7">
-        <v>0.8928777833200804</v>
+        <v>1.008287019491027</v>
+      </c>
+      <c r="K7">
+        <v>1.046341864755669</v>
       </c>
       <c r="L7">
-        <v>0.9019528630565182</v>
+        <v>1.014462713590521</v>
       </c>
       <c r="M7">
-        <v>0.8555381665859727</v>
+        <v>1.021688976775518</v>
       </c>
       <c r="N7">
-        <v>0.8941457721869082</v>
+        <v>1.009718902710842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8325038312869462</v>
+        <v>0.9808065930060815</v>
+      </c>
+      <c r="D8">
+        <v>1.033367162339149</v>
       </c>
       <c r="E8">
-        <v>0.8584240888761852</v>
+        <v>0.9976918890062173</v>
       </c>
       <c r="F8">
-        <v>0.7987612055303308</v>
+        <v>1.004104106785432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.051991229846296</v>
+      </c>
       <c r="J8">
-        <v>0.8604072540861046</v>
+        <v>1.002986593063762</v>
+      </c>
+      <c r="K8">
+        <v>1.044113354795805</v>
       </c>
       <c r="L8">
-        <v>0.8719378334226643</v>
+        <v>1.008903216160657</v>
       </c>
       <c r="M8">
-        <v>0.8135923286807202</v>
+        <v>1.015228770852901</v>
       </c>
       <c r="N8">
-        <v>0.8616291310769986</v>
+        <v>1.004410949070082</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.711186724522598</v>
+        <v>0.9662571929990489</v>
+      </c>
+      <c r="D9">
+        <v>1.027139389177354</v>
       </c>
       <c r="E9">
-        <v>0.7549096444727436</v>
+        <v>0.9851546495435598</v>
       </c>
       <c r="F9">
-        <v>0.6477345735192712</v>
+        <v>0.989828201489654</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.049101157819051</v>
+      </c>
       <c r="J9">
-        <v>0.7536333359112697</v>
+        <v>0.9930604687202649</v>
+      </c>
+      <c r="K9">
+        <v>1.039806976449048</v>
       </c>
       <c r="L9">
-        <v>0.7738021096556194</v>
+        <v>0.9984932634694985</v>
       </c>
       <c r="M9">
-        <v>0.6712253208434675</v>
+        <v>1.003088493379278</v>
       </c>
       <c r="N9">
-        <v>0.7547035816912155</v>
+        <v>0.9944707284914756</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.711186724522598</v>
+        <v>0.9559141983100921</v>
+      </c>
+      <c r="D10">
+        <v>1.022692228199946</v>
       </c>
       <c r="E10">
-        <v>0.7549096444727436</v>
+        <v>0.9762726330720909</v>
       </c>
       <c r="F10">
-        <v>0.6477345735192712</v>
+        <v>0.9796745768438964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.046939364405095</v>
+      </c>
       <c r="J10">
-        <v>0.7536333359112697</v>
+        <v>0.9859931198423227</v>
+      </c>
+      <c r="K10">
+        <v>1.036663508346398</v>
       </c>
       <c r="L10">
-        <v>0.7738021096556194</v>
+        <v>0.9910839278056542</v>
       </c>
       <c r="M10">
-        <v>0.6712253208434675</v>
+        <v>0.9944207733719314</v>
       </c>
       <c r="N10">
-        <v>0.7547035816912155</v>
+        <v>0.9873933431674907</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.711186724522598</v>
+        <v>0.951261012285785</v>
+      </c>
+      <c r="D11">
+        <v>1.020691360585141</v>
       </c>
       <c r="E11">
-        <v>0.7549096444727436</v>
+        <v>0.9722856552411382</v>
       </c>
       <c r="F11">
-        <v>0.6477345735192712</v>
+        <v>0.9751076536831967</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.045944119459369</v>
+      </c>
       <c r="J11">
-        <v>0.7536333359112697</v>
+        <v>0.9828120004309229</v>
+      </c>
+      <c r="K11">
+        <v>1.035233340077304</v>
       </c>
       <c r="L11">
-        <v>0.7738021096556194</v>
+        <v>0.9877498583143886</v>
       </c>
       <c r="M11">
-        <v>0.6712253208434675</v>
+        <v>0.9905147828031625</v>
       </c>
       <c r="N11">
-        <v>0.7547035816912155</v>
+        <v>0.9842077062016469</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.711186724522598</v>
+        <v>0.9495042728771107</v>
+      </c>
+      <c r="D12">
+        <v>1.019936363758823</v>
       </c>
       <c r="E12">
-        <v>0.7549096444727436</v>
+        <v>0.9707819317130311</v>
       </c>
       <c r="F12">
-        <v>0.6477345735192712</v>
+        <v>0.9733838535776768</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.045565227178458</v>
+      </c>
       <c r="J12">
-        <v>0.7536333359112697</v>
+        <v>0.9816108695780469</v>
+      </c>
+      <c r="K12">
+        <v>1.034691328633514</v>
       </c>
       <c r="L12">
-        <v>0.7738021096556194</v>
+        <v>0.9864911604784748</v>
       </c>
       <c r="M12">
-        <v>0.6712253208434675</v>
+        <v>0.9890393812202061</v>
       </c>
       <c r="N12">
-        <v>0.7547035816912155</v>
+        <v>0.9830048696051883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.711186724522598</v>
+        <v>0.9498824181549876</v>
+      </c>
+      <c r="D13">
+        <v>1.020098854710064</v>
       </c>
       <c r="E13">
-        <v>0.7549096444727436</v>
+        <v>0.971105543941192</v>
       </c>
       <c r="F13">
-        <v>0.6477345735192712</v>
+        <v>0.9737548881466206</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.0456469233454</v>
+      </c>
       <c r="J13">
-        <v>0.7536333359112697</v>
+        <v>0.9818694229456217</v>
+      </c>
+      <c r="K13">
+        <v>1.034808086935191</v>
       </c>
       <c r="L13">
-        <v>0.7738021096556194</v>
+        <v>0.9867620966884522</v>
       </c>
       <c r="M13">
-        <v>0.6712253208434675</v>
+        <v>0.9893569977188679</v>
       </c>
       <c r="N13">
-        <v>0.7547035816912155</v>
+        <v>0.9832637901482013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.711186724522598</v>
+        <v>0.9511163907528297</v>
+      </c>
+      <c r="D14">
+        <v>1.020629195686338</v>
       </c>
       <c r="E14">
-        <v>0.7549096444727436</v>
+        <v>0.9721618315683882</v>
       </c>
       <c r="F14">
-        <v>0.6477345735192712</v>
+        <v>0.9749657350064611</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.045912990048401</v>
+      </c>
       <c r="J14">
-        <v>0.7536333359112697</v>
+        <v>0.9827131211591159</v>
+      </c>
+      <c r="K14">
+        <v>1.03518875973819</v>
       </c>
       <c r="L14">
-        <v>0.7738021096556194</v>
+        <v>0.9876462360680228</v>
       </c>
       <c r="M14">
-        <v>0.6712253208434675</v>
+        <v>0.9903933360576548</v>
       </c>
       <c r="N14">
-        <v>0.7547035816912155</v>
+        <v>0.9841086865099324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.711186724522598</v>
+        <v>0.9518728599509143</v>
+      </c>
+      <c r="D15">
+        <v>1.020954379351895</v>
       </c>
       <c r="E15">
-        <v>0.7549096444727436</v>
+        <v>0.9728095757416569</v>
       </c>
       <c r="F15">
-        <v>0.6477345735192712</v>
+        <v>0.975708082866368</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.046075691380139</v>
+      </c>
       <c r="J15">
-        <v>0.7536333359112697</v>
+        <v>0.9832303217173383</v>
+      </c>
+      <c r="K15">
+        <v>1.0354218629426</v>
       </c>
       <c r="L15">
-        <v>0.7738021096556194</v>
+        <v>0.9881882530687299</v>
       </c>
       <c r="M15">
-        <v>0.6712253208434675</v>
+        <v>0.9910285559850301</v>
       </c>
       <c r="N15">
-        <v>0.7547035816912155</v>
+        <v>0.9846266215522711</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.711186724522598</v>
+        <v>0.9562191614902611</v>
+      </c>
+      <c r="D16">
+        <v>1.02282339400278</v>
       </c>
       <c r="E16">
-        <v>0.7549096444727436</v>
+        <v>0.9765341321315548</v>
       </c>
       <c r="F16">
-        <v>0.6477345735192712</v>
+        <v>0.979973926027331</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.047004141854464</v>
+      </c>
       <c r="J16">
-        <v>0.7536333359112697</v>
+        <v>0.9862015802459495</v>
+      </c>
+      <c r="K16">
+        <v>1.036756935204072</v>
       </c>
       <c r="L16">
-        <v>0.7738021096556194</v>
+        <v>0.9913024344936755</v>
       </c>
       <c r="M16">
-        <v>0.6712253208434675</v>
+        <v>0.9946766499433775</v>
       </c>
       <c r="N16">
-        <v>0.7547035816912155</v>
+        <v>0.987602099608801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.711186724522598</v>
+        <v>0.9588973170585737</v>
+      </c>
+      <c r="D17">
+        <v>1.023975310238871</v>
       </c>
       <c r="E17">
-        <v>0.7549096444727436</v>
+        <v>0.9788316188773172</v>
       </c>
       <c r="F17">
-        <v>0.6477345735192712</v>
+        <v>0.9826029246193815</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.047570472508342</v>
+      </c>
       <c r="J17">
-        <v>0.7536333359112697</v>
+        <v>0.9880320869405446</v>
+      </c>
+      <c r="K17">
+        <v>1.037575630549895</v>
       </c>
       <c r="L17">
-        <v>0.7738021096556194</v>
+        <v>0.9932212737444805</v>
       </c>
       <c r="M17">
-        <v>0.6712253208434675</v>
+        <v>0.9969230220976466</v>
       </c>
       <c r="N17">
-        <v>0.7547035816912155</v>
+        <v>0.9894352058328645</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.711186724522598</v>
+        <v>0.9604427470883941</v>
+      </c>
+      <c r="D18">
+        <v>1.02463998100573</v>
       </c>
       <c r="E18">
-        <v>0.7549096444727436</v>
+        <v>0.9801582152323975</v>
       </c>
       <c r="F18">
-        <v>0.6477345735192712</v>
+        <v>0.9841200746032411</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.047895117589085</v>
+      </c>
       <c r="J18">
-        <v>0.7536333359112697</v>
+        <v>0.9890882231387864</v>
+      </c>
+      <c r="K18">
+        <v>1.038046531516262</v>
       </c>
       <c r="L18">
-        <v>0.7738021096556194</v>
+        <v>0.9943284648134394</v>
       </c>
       <c r="M18">
-        <v>0.6712253208434675</v>
+        <v>0.9982186642301555</v>
       </c>
       <c r="N18">
-        <v>0.7547035816912155</v>
+        <v>0.9904928418656485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.711186724522598</v>
+        <v>0.9609669278009194</v>
+      </c>
+      <c r="D19">
+        <v>1.024865405549764</v>
       </c>
       <c r="E19">
-        <v>0.7549096444727436</v>
+        <v>0.9806083082670537</v>
       </c>
       <c r="F19">
-        <v>0.6477345735192712</v>
+        <v>0.9846346718587047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.048004858068007</v>
+      </c>
       <c r="J19">
-        <v>0.7536333359112697</v>
+        <v>0.9894464151774242</v>
+      </c>
+      <c r="K19">
+        <v>1.038205983921904</v>
       </c>
       <c r="L19">
-        <v>0.7738021096556194</v>
+        <v>0.9947039865457399</v>
       </c>
       <c r="M19">
-        <v>0.6712253208434675</v>
+        <v>0.9986580089524529</v>
       </c>
       <c r="N19">
-        <v>0.7547035816912155</v>
+        <v>0.9908515425780661</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.711186724522598</v>
+        <v>0.9586117174429063</v>
+      </c>
+      <c r="D20">
+        <v>1.023852470955601</v>
       </c>
       <c r="E20">
-        <v>0.7549096444727436</v>
+        <v>0.9785865265285579</v>
       </c>
       <c r="F20">
-        <v>0.6477345735192712</v>
+        <v>0.9823225567499556</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.047510300963147</v>
+      </c>
       <c r="J20">
-        <v>0.7536333359112697</v>
+        <v>0.9878368967168109</v>
+      </c>
+      <c r="K20">
+        <v>1.03748848094416</v>
       </c>
       <c r="L20">
-        <v>0.7738021096556194</v>
+        <v>0.9930166548465046</v>
       </c>
       <c r="M20">
-        <v>0.6712253208434675</v>
+        <v>0.9966835316823883</v>
       </c>
       <c r="N20">
-        <v>0.7547035816912155</v>
+        <v>0.9892397384166245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.711186724522598</v>
+        <v>0.9507538169307234</v>
+      </c>
+      <c r="D21">
+        <v>1.02047335293153</v>
       </c>
       <c r="E21">
-        <v>0.7549096444727436</v>
+        <v>0.9718514237607909</v>
       </c>
       <c r="F21">
-        <v>0.6477345735192712</v>
+        <v>0.9746099441266109</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.045834897140886</v>
+      </c>
       <c r="J21">
-        <v>0.7536333359112697</v>
+        <v>0.9824652235571584</v>
+      </c>
+      <c r="K21">
+        <v>1.03507696226117</v>
       </c>
       <c r="L21">
-        <v>0.7738021096556194</v>
+        <v>0.9873864505712808</v>
       </c>
       <c r="M21">
-        <v>0.6712253208434675</v>
+        <v>0.9900888512955707</v>
       </c>
       <c r="N21">
-        <v>0.7547035816912155</v>
+        <v>0.9838604368649456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.711186724522598</v>
+        <v>0.9456480673968307</v>
+      </c>
+      <c r="D22">
+        <v>1.018280308213763</v>
       </c>
       <c r="E22">
-        <v>0.7549096444727436</v>
+        <v>0.9674840683244266</v>
       </c>
       <c r="F22">
-        <v>0.6477345735192712</v>
+        <v>0.9696008891309599</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.044728011651297</v>
+      </c>
       <c r="J22">
-        <v>0.7536333359112697</v>
+        <v>0.9789741147634649</v>
+      </c>
+      <c r="K22">
+        <v>1.033498123497063</v>
       </c>
       <c r="L22">
-        <v>0.7738021096556194</v>
+        <v>0.9837284152828627</v>
       </c>
       <c r="M22">
-        <v>0.6712253208434675</v>
+        <v>0.9857996084790756</v>
       </c>
       <c r="N22">
-        <v>0.7547035816912155</v>
+        <v>0.9803643702963294</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.711186724522598</v>
+        <v>0.9483711431907544</v>
+      </c>
+      <c r="D23">
+        <v>1.019449545054496</v>
       </c>
       <c r="E23">
-        <v>0.7549096444727436</v>
+        <v>0.9698124454240973</v>
       </c>
       <c r="F23">
-        <v>0.6477345735192712</v>
+        <v>0.972272103312964</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.045319979359194</v>
+      </c>
       <c r="J23">
-        <v>0.7536333359112697</v>
+        <v>0.9808360885414955</v>
+      </c>
+      <c r="K23">
+        <v>1.034341179466653</v>
       </c>
       <c r="L23">
-        <v>0.7738021096556194</v>
+        <v>0.9856793029690093</v>
       </c>
       <c r="M23">
-        <v>0.6712253208434675</v>
+        <v>0.9880875362243563</v>
       </c>
       <c r="N23">
-        <v>0.7547035816912155</v>
+        <v>0.9822289882906963</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.711186724522598</v>
+        <v>0.9587408190454525</v>
+      </c>
+      <c r="D24">
+        <v>1.023907999024418</v>
       </c>
       <c r="E24">
-        <v>0.7549096444727436</v>
+        <v>0.9786973147774327</v>
       </c>
       <c r="F24">
-        <v>0.6477345735192712</v>
+        <v>0.9824492931582348</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.047537507441937</v>
+      </c>
       <c r="J24">
-        <v>0.7536333359112697</v>
+        <v>0.9879251304234048</v>
+      </c>
+      <c r="K24">
+        <v>1.037527880558565</v>
       </c>
       <c r="L24">
-        <v>0.7738021096556194</v>
+        <v>0.993109150409779</v>
       </c>
       <c r="M24">
-        <v>0.6712253208434675</v>
+        <v>0.9967917921823052</v>
       </c>
       <c r="N24">
-        <v>0.7547035816912155</v>
+        <v>0.9893280974252024</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.711186724522598</v>
+        <v>0.9701251333070804</v>
+      </c>
+      <c r="D25">
+        <v>1.028799846543127</v>
       </c>
       <c r="E25">
-        <v>0.7549096444727436</v>
+        <v>0.9884829451555379</v>
       </c>
       <c r="F25">
-        <v>0.6477345735192712</v>
+        <v>0.9936249883703625</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.049888679348149</v>
+      </c>
       <c r="J25">
-        <v>0.7536333359112697</v>
+        <v>0.9957014999563777</v>
+      </c>
+      <c r="K25">
+        <v>1.040966947106615</v>
       </c>
       <c r="L25">
-        <v>0.7738021096556194</v>
+        <v>1.00126271895451</v>
       </c>
       <c r="M25">
-        <v>0.6712253208434675</v>
+        <v>1.006323080931115</v>
       </c>
       <c r="N25">
-        <v>0.7547035816912155</v>
+        <v>0.9971155102948742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.978748690202874</v>
+        <v>1.02817156464667</v>
       </c>
       <c r="D2">
-        <v>1.032489959824373</v>
+        <v>1.030020546426149</v>
       </c>
       <c r="E2">
-        <v>0.9959157319624561</v>
+        <v>1.037310853597163</v>
       </c>
       <c r="F2">
-        <v>1.002086163069428</v>
+        <v>1.046259149266063</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051595234031259</v>
+        <v>1.032317986453552</v>
       </c>
       <c r="J2">
-        <v>1.001584150808145</v>
+        <v>1.03332536267446</v>
       </c>
       <c r="K2">
-        <v>1.043514480122228</v>
+        <v>1.032832768017343</v>
       </c>
       <c r="L2">
-        <v>1.007432261926678</v>
+        <v>1.040102101284833</v>
       </c>
       <c r="M2">
-        <v>1.013516510638589</v>
+        <v>1.049025086651996</v>
       </c>
       <c r="N2">
-        <v>1.0030065151856</v>
+        <v>1.034792803213533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9847740672674922</v>
+        <v>1.029407233558643</v>
       </c>
       <c r="D3">
-        <v>1.035053479094007</v>
+        <v>1.030461415834738</v>
       </c>
       <c r="E3">
-        <v>1.001118686306192</v>
+        <v>1.038418322210282</v>
       </c>
       <c r="F3">
-        <v>1.007992700173136</v>
+        <v>1.047482177024637</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052740984937822</v>
+        <v>1.03241346095033</v>
       </c>
       <c r="J3">
-        <v>1.00568859171133</v>
+        <v>1.034200060393832</v>
       </c>
       <c r="K3">
-        <v>1.045256660653395</v>
+        <v>1.033082893208857</v>
       </c>
       <c r="L3">
-        <v>1.011737273315924</v>
+        <v>1.041018563157604</v>
       </c>
       <c r="M3">
-        <v>1.018524324259569</v>
+        <v>1.050058651655641</v>
       </c>
       <c r="N3">
-        <v>1.007116784865654</v>
+        <v>1.035668743103996</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9885720381155523</v>
+        <v>1.03020627175964</v>
       </c>
       <c r="D4">
-        <v>1.036660693380238</v>
+        <v>1.030744229107144</v>
       </c>
       <c r="E4">
-        <v>1.00440206731922</v>
+        <v>1.039134339492755</v>
       </c>
       <c r="F4">
-        <v>1.011712408882927</v>
+        <v>1.048271815459117</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05344048086709</v>
+        <v>1.032471999206458</v>
       </c>
       <c r="J4">
-        <v>1.008272659754346</v>
+        <v>1.034765059320114</v>
       </c>
       <c r="K4">
-        <v>1.046335908808849</v>
+        <v>1.033241558178008</v>
       </c>
       <c r="L4">
-        <v>1.014447652032532</v>
+        <v>1.041610403523623</v>
       </c>
       <c r="M4">
-        <v>1.021671501172499</v>
+        <v>1.050725137056315</v>
       </c>
       <c r="N4">
-        <v>1.009704522581688</v>
+        <v>1.03623454439356</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9901457079201728</v>
+        <v>1.030542064884434</v>
       </c>
       <c r="D5">
-        <v>1.037324304021739</v>
+        <v>1.030862532816558</v>
       </c>
       <c r="E5">
-        <v>1.005763346289992</v>
+        <v>1.039435213475144</v>
       </c>
       <c r="F5">
-        <v>1.013252724597245</v>
+        <v>1.048603363537542</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053724701411492</v>
+        <v>1.032495831543465</v>
       </c>
       <c r="J5">
-        <v>1.009342561960873</v>
+        <v>1.035002349455757</v>
       </c>
       <c r="K5">
-        <v>1.046778352273792</v>
+        <v>1.033307497027641</v>
       </c>
       <c r="L5">
-        <v>1.015569839217023</v>
+        <v>1.04185893383425</v>
       </c>
       <c r="M5">
-        <v>1.022973132726363</v>
+        <v>1.051004777618448</v>
       </c>
       <c r="N5">
-        <v>1.010775944172068</v>
+        <v>1.036472171508413</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9904086172994045</v>
+        <v>1.030598438913854</v>
       </c>
       <c r="D6">
-        <v>1.037435027623388</v>
+        <v>1.030882361803813</v>
       </c>
       <c r="E6">
-        <v>1.005990818207578</v>
+        <v>1.039485723387253</v>
       </c>
       <c r="F6">
-        <v>1.01351000365531</v>
+        <v>1.048659007562714</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053771850780703</v>
+        <v>1.032499787482363</v>
       </c>
       <c r="J6">
-        <v>1.009521259884792</v>
+        <v>1.035042177747753</v>
       </c>
       <c r="K6">
-        <v>1.046851985920819</v>
+        <v>1.033318523597193</v>
       </c>
       <c r="L6">
-        <v>1.015757268591244</v>
+        <v>1.041900646816567</v>
       </c>
       <c r="M6">
-        <v>1.02319044933387</v>
+        <v>1.051051698274787</v>
       </c>
       <c r="N6">
-        <v>1.010954895867535</v>
+        <v>1.036512056361152</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9885931544736176</v>
+        <v>1.030210759122265</v>
       </c>
       <c r="D7">
-        <v>1.036669607616292</v>
+        <v>1.030745812212391</v>
       </c>
       <c r="E7">
-        <v>1.004420330542551</v>
+        <v>1.039138360332957</v>
       </c>
       <c r="F7">
-        <v>1.011733081499198</v>
+        <v>1.048276247253745</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053444317101834</v>
+        <v>1.032472320710888</v>
       </c>
       <c r="J7">
-        <v>1.008287019491027</v>
+        <v>1.03476823092593</v>
       </c>
       <c r="K7">
-        <v>1.046341864755669</v>
+        <v>1.033242442260326</v>
       </c>
       <c r="L7">
-        <v>1.014462713590521</v>
+        <v>1.041613725494255</v>
       </c>
       <c r="M7">
-        <v>1.021688976775518</v>
+        <v>1.050728875787133</v>
       </c>
       <c r="N7">
-        <v>1.009718902710842</v>
+        <v>1.03623772050342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9808065930060815</v>
+        <v>1.028589274370517</v>
       </c>
       <c r="D8">
-        <v>1.033367162339149</v>
+        <v>1.030170047995659</v>
       </c>
       <c r="E8">
-        <v>0.9976918890062173</v>
+        <v>1.037685250550765</v>
       </c>
       <c r="F8">
-        <v>1.004104106785432</v>
+        <v>1.046672838712672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051991229846296</v>
+        <v>1.032350922536984</v>
       </c>
       <c r="J8">
-        <v>1.002986593063762</v>
+        <v>1.033621176462157</v>
       </c>
       <c r="K8">
-        <v>1.044113354795805</v>
+        <v>1.032917956856678</v>
       </c>
       <c r="L8">
-        <v>1.008903216160657</v>
+        <v>1.040412067178979</v>
       </c>
       <c r="M8">
-        <v>1.015228770852901</v>
+        <v>1.049374861560514</v>
       </c>
       <c r="N8">
-        <v>1.004410949070082</v>
+        <v>1.035089037090739</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9662571929990489</v>
+        <v>1.025727898959768</v>
       </c>
       <c r="D9">
-        <v>1.027139389177354</v>
+        <v>1.029136748421671</v>
       </c>
       <c r="E9">
-        <v>0.9851546495435598</v>
+        <v>1.035120113790983</v>
       </c>
       <c r="F9">
-        <v>0.989828201489654</v>
+        <v>1.043834027412905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049101157819051</v>
+        <v>1.032112249757243</v>
       </c>
       <c r="J9">
-        <v>0.9930604687202649</v>
+        <v>1.031592283380329</v>
       </c>
       <c r="K9">
-        <v>1.039806976449048</v>
+        <v>1.032321878765232</v>
       </c>
       <c r="L9">
-        <v>0.9984932634694985</v>
+        <v>1.038285564544728</v>
       </c>
       <c r="M9">
-        <v>1.003088493379278</v>
+        <v>1.046971259594827</v>
       </c>
       <c r="N9">
-        <v>0.9944707284914756</v>
+        <v>1.033057262748018</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9559141983100921</v>
+        <v>1.023817389417192</v>
       </c>
       <c r="D10">
-        <v>1.022692228199946</v>
+        <v>1.028435421405652</v>
       </c>
       <c r="E10">
-        <v>0.9762726330720909</v>
+        <v>1.033406858807775</v>
       </c>
       <c r="F10">
-        <v>0.9796745768438964</v>
+        <v>1.041932390233029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046939364405095</v>
+        <v>1.031936571484487</v>
       </c>
       <c r="J10">
-        <v>0.9859931198423227</v>
+        <v>1.030234462923442</v>
       </c>
       <c r="K10">
-        <v>1.036663508346398</v>
+        <v>1.031908266848974</v>
       </c>
       <c r="L10">
-        <v>0.9910839278056542</v>
+        <v>1.036861748026829</v>
       </c>
       <c r="M10">
-        <v>0.9944207733719314</v>
+        <v>1.045356926122214</v>
       </c>
       <c r="N10">
-        <v>0.9873933431674907</v>
+        <v>1.031697514030337</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.951261012285785</v>
+        <v>1.022989386706896</v>
       </c>
       <c r="D11">
-        <v>1.020691360585141</v>
+        <v>1.028128810055141</v>
       </c>
       <c r="E11">
-        <v>0.9722856552411382</v>
+        <v>1.032664228554953</v>
       </c>
       <c r="F11">
-        <v>0.9751076536831967</v>
+        <v>1.041106781368141</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045944119459369</v>
+        <v>1.03185658813384</v>
       </c>
       <c r="J11">
-        <v>0.9828120004309229</v>
+        <v>1.02964525102772</v>
       </c>
       <c r="K11">
-        <v>1.035233340077304</v>
+        <v>1.031725340812541</v>
       </c>
       <c r="L11">
-        <v>0.9877498583143886</v>
+        <v>1.036243742582085</v>
       </c>
       <c r="M11">
-        <v>0.9905147828031625</v>
+        <v>1.044655055907513</v>
       </c>
       <c r="N11">
-        <v>0.9842077062016469</v>
+        <v>1.03110746538614</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9495042728771107</v>
+        <v>1.022681715226343</v>
       </c>
       <c r="D12">
-        <v>1.019936363758823</v>
+        <v>1.028014482443979</v>
       </c>
       <c r="E12">
-        <v>0.9707819317130311</v>
+        <v>1.032388263493682</v>
       </c>
       <c r="F12">
-        <v>0.9733838535776768</v>
+        <v>1.040799782771414</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045565227178458</v>
+        <v>1.03182629196342</v>
       </c>
       <c r="J12">
-        <v>0.9816108695780469</v>
+        <v>1.029426199229555</v>
       </c>
       <c r="K12">
-        <v>1.034691328633514</v>
+        <v>1.031656820200518</v>
       </c>
       <c r="L12">
-        <v>0.9864911604784748</v>
+        <v>1.036013963187344</v>
       </c>
       <c r="M12">
-        <v>0.9890393812202061</v>
+        <v>1.044393919811891</v>
       </c>
       <c r="N12">
-        <v>0.9830048696051883</v>
+        <v>1.030888102509296</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9498824181549876</v>
+        <v>1.022747717033964</v>
       </c>
       <c r="D13">
-        <v>1.020098854710064</v>
+        <v>1.028039025916199</v>
       </c>
       <c r="E13">
-        <v>0.971105543941192</v>
+        <v>1.032447464359042</v>
       </c>
       <c r="F13">
-        <v>0.9737548881466206</v>
+        <v>1.040865650011373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0456469233454</v>
+        <v>1.031832817130157</v>
       </c>
       <c r="J13">
-        <v>0.9818694229456217</v>
+        <v>1.029473195316047</v>
       </c>
       <c r="K13">
-        <v>1.034808086935191</v>
+        <v>1.031671544042497</v>
       </c>
       <c r="L13">
-        <v>0.9867620966884522</v>
+        <v>1.03606326184255</v>
       </c>
       <c r="M13">
-        <v>0.9893569977188679</v>
+        <v>1.044449953886516</v>
       </c>
       <c r="N13">
-        <v>0.9832637901482013</v>
+        <v>1.030935165335622</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9511163907528297</v>
+        <v>1.022963956839462</v>
       </c>
       <c r="D14">
-        <v>1.020629195686338</v>
+        <v>1.028119368633059</v>
       </c>
       <c r="E14">
-        <v>0.9721618315683882</v>
+        <v>1.032641419638618</v>
       </c>
       <c r="F14">
-        <v>0.9749657350064611</v>
+        <v>1.041081411526799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045912990048401</v>
+        <v>1.031854095806751</v>
       </c>
       <c r="J14">
-        <v>0.9827131211591159</v>
+        <v>1.029627148071355</v>
       </c>
       <c r="K14">
-        <v>1.03518875973819</v>
+        <v>1.03171968857253</v>
       </c>
       <c r="L14">
-        <v>0.9876462360680228</v>
+        <v>1.036224753538951</v>
       </c>
       <c r="M14">
-        <v>0.9903933360576548</v>
+        <v>1.044633479102696</v>
       </c>
       <c r="N14">
-        <v>0.9841086865099324</v>
+        <v>1.0310893367215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9518728599509143</v>
+        <v>1.023097174060847</v>
       </c>
       <c r="D15">
-        <v>1.020954379351895</v>
+        <v>1.028168812385732</v>
       </c>
       <c r="E15">
-        <v>0.9728095757416569</v>
+        <v>1.03276090604266</v>
       </c>
       <c r="F15">
-        <v>0.975708082866368</v>
+        <v>1.04121430543314</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046075691380139</v>
+        <v>1.031867128580078</v>
       </c>
       <c r="J15">
-        <v>0.9832303217173383</v>
+        <v>1.029721977908785</v>
       </c>
       <c r="K15">
-        <v>1.0354218629426</v>
+        <v>1.031749276026882</v>
       </c>
       <c r="L15">
-        <v>0.9881882530687299</v>
+        <v>1.036324224080171</v>
       </c>
       <c r="M15">
-        <v>0.9910285559850301</v>
+        <v>1.04474649798505</v>
       </c>
       <c r="N15">
-        <v>0.9846266215522711</v>
+        <v>1.031184301228177</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9562191614902611</v>
+        <v>1.023872325368482</v>
       </c>
       <c r="D16">
-        <v>1.02282339400278</v>
+        <v>1.028455708588133</v>
       </c>
       <c r="E16">
-        <v>0.9765341321315548</v>
+        <v>1.033456128137704</v>
       </c>
       <c r="F16">
-        <v>0.979973926027331</v>
+        <v>1.041987136912546</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047004141854464</v>
+        <v>1.031941797363679</v>
       </c>
       <c r="J16">
-        <v>0.9862015802459495</v>
+        <v>1.030273540122215</v>
       </c>
       <c r="K16">
-        <v>1.036756935204072</v>
+        <v>1.031920326503756</v>
       </c>
       <c r="L16">
-        <v>0.9913024344936755</v>
+        <v>1.036902731606338</v>
       </c>
       <c r="M16">
-        <v>0.9946766499433775</v>
+        <v>1.045403446689255</v>
       </c>
       <c r="N16">
-        <v>0.987602099608801</v>
+        <v>1.031736646723216</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9588973170585737</v>
+        <v>1.024358356999422</v>
       </c>
       <c r="D17">
-        <v>1.023975310238871</v>
+        <v>1.028634887425422</v>
       </c>
       <c r="E17">
-        <v>0.9788316188773172</v>
+        <v>1.033892012482009</v>
       </c>
       <c r="F17">
-        <v>0.9826029246193815</v>
+        <v>1.042471326603344</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047570472508342</v>
+        <v>1.031987588201136</v>
       </c>
       <c r="J17">
-        <v>0.9880320869405446</v>
+        <v>1.030619180024689</v>
       </c>
       <c r="K17">
-        <v>1.037575630549895</v>
+        <v>1.032026597857157</v>
       </c>
       <c r="L17">
-        <v>0.9932212737444805</v>
+        <v>1.0372652156747</v>
       </c>
       <c r="M17">
-        <v>0.9969230220976466</v>
+        <v>1.045814768273885</v>
       </c>
       <c r="N17">
-        <v>0.9894352058328645</v>
+        <v>1.032082777473997</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9604427470883941</v>
+        <v>1.024641779904964</v>
       </c>
       <c r="D18">
-        <v>1.02463998100573</v>
+        <v>1.028739116371629</v>
       </c>
       <c r="E18">
-        <v>0.9801582152323975</v>
+        <v>1.034146181369793</v>
       </c>
       <c r="F18">
-        <v>0.9841200746032411</v>
+        <v>1.042753535348707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047895117589085</v>
+        <v>1.032013919550868</v>
       </c>
       <c r="J18">
-        <v>0.9890882231387864</v>
+        <v>1.030820663851126</v>
       </c>
       <c r="K18">
-        <v>1.038046531516262</v>
+        <v>1.032088214561481</v>
       </c>
       <c r="L18">
-        <v>0.9943284648134394</v>
+        <v>1.037476503486256</v>
       </c>
       <c r="M18">
-        <v>0.9982186642301555</v>
+        <v>1.046054410017996</v>
       </c>
       <c r="N18">
-        <v>0.9904928418656485</v>
+        <v>1.032284547430578</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9609669278009194</v>
+        <v>1.02473840782714</v>
       </c>
       <c r="D19">
-        <v>1.024865405549764</v>
+        <v>1.028774607677994</v>
       </c>
       <c r="E19">
-        <v>0.9806083082670537</v>
+        <v>1.034232833717592</v>
       </c>
       <c r="F19">
-        <v>0.9846346718587047</v>
+        <v>1.04284972552511</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048004858068007</v>
+        <v>1.032022833764723</v>
       </c>
       <c r="J19">
-        <v>0.9894464151774242</v>
+        <v>1.030889343980569</v>
       </c>
       <c r="K19">
-        <v>1.038205983921904</v>
+        <v>1.032109161529225</v>
       </c>
       <c r="L19">
-        <v>0.9947039865457399</v>
+        <v>1.037548522965141</v>
       </c>
       <c r="M19">
-        <v>0.9986580089524529</v>
+        <v>1.046136075031644</v>
       </c>
       <c r="N19">
-        <v>0.9908515425780661</v>
+        <v>1.032353325093682</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9586117174429063</v>
+        <v>1.02430621778689</v>
       </c>
       <c r="D20">
-        <v>1.023852470955601</v>
+        <v>1.028615692493618</v>
       </c>
       <c r="E20">
-        <v>0.9785865265285579</v>
+        <v>1.033845253998067</v>
       </c>
       <c r="F20">
-        <v>0.9823225567499556</v>
+        <v>1.042419399463508</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047510300963147</v>
+        <v>1.031982714333703</v>
       </c>
       <c r="J20">
-        <v>0.9878368967168109</v>
+        <v>1.030582108776806</v>
       </c>
       <c r="K20">
-        <v>1.03748848094416</v>
+        <v>1.032015234162721</v>
       </c>
       <c r="L20">
-        <v>0.9930166548465046</v>
+        <v>1.037226339371019</v>
       </c>
       <c r="M20">
-        <v>0.9966835316823883</v>
+        <v>1.045770665836141</v>
       </c>
       <c r="N20">
-        <v>0.9892397384166245</v>
+        <v>1.03204565358069</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9507538169307234</v>
+        <v>1.022900282791307</v>
       </c>
       <c r="D21">
-        <v>1.02047335293153</v>
+        <v>1.028095721794414</v>
       </c>
       <c r="E21">
-        <v>0.9718514237607909</v>
+        <v>1.032584307947534</v>
       </c>
       <c r="F21">
-        <v>0.9746099441266109</v>
+        <v>1.041017884284153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045834897140886</v>
+        <v>1.031847845956053</v>
       </c>
       <c r="J21">
-        <v>0.9824652235571584</v>
+        <v>1.029581818145445</v>
       </c>
       <c r="K21">
-        <v>1.03507696226117</v>
+        <v>1.031705527033981</v>
       </c>
       <c r="L21">
-        <v>0.9873864505712808</v>
+        <v>1.036177204475474</v>
       </c>
       <c r="M21">
-        <v>0.9900888512955707</v>
+        <v>1.044579447390736</v>
       </c>
       <c r="N21">
-        <v>0.9838604368649456</v>
+        <v>1.031043942421896</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9456480673968307</v>
+        <v>1.022015652072926</v>
       </c>
       <c r="D22">
-        <v>1.018280308213763</v>
+        <v>1.027766259482751</v>
       </c>
       <c r="E22">
-        <v>0.9674840683244266</v>
+        <v>1.031790810911937</v>
       </c>
       <c r="F22">
-        <v>0.9696008891309599</v>
+        <v>1.040134781649689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044728011651297</v>
+        <v>1.031759654398088</v>
       </c>
       <c r="J22">
-        <v>0.9789741147634649</v>
+        <v>1.028951782344199</v>
       </c>
       <c r="K22">
-        <v>1.033498123497063</v>
+        <v>1.031507483141244</v>
       </c>
       <c r="L22">
-        <v>0.9837284152828627</v>
+        <v>1.035516271032875</v>
       </c>
       <c r="M22">
-        <v>0.9857996084790756</v>
+        <v>1.043827990971906</v>
       </c>
       <c r="N22">
-        <v>0.9803643702963294</v>
+        <v>1.030413011897547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9483711431907544</v>
+        <v>1.022484675568429</v>
       </c>
       <c r="D23">
-        <v>1.019449545054496</v>
+        <v>1.027941153424203</v>
       </c>
       <c r="E23">
-        <v>0.9698124454240973</v>
+        <v>1.032211524805796</v>
       </c>
       <c r="F23">
-        <v>0.972272103312964</v>
+        <v>1.040603113235093</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045319979359194</v>
+        <v>1.031806727788923</v>
       </c>
       <c r="J23">
-        <v>0.9808360885414955</v>
+        <v>1.029285882441282</v>
       </c>
       <c r="K23">
-        <v>1.034341179466653</v>
+        <v>1.031612784021551</v>
       </c>
       <c r="L23">
-        <v>0.9856793029690093</v>
+        <v>1.035866768249379</v>
       </c>
       <c r="M23">
-        <v>0.9880875362243563</v>
+        <v>1.04422658881602</v>
       </c>
       <c r="N23">
-        <v>0.9822289882906963</v>
+        <v>1.03074758645509</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9587408190454525</v>
+        <v>1.024329777472366</v>
       </c>
       <c r="D24">
-        <v>1.023907999024418</v>
+        <v>1.02862436673197</v>
       </c>
       <c r="E24">
-        <v>0.9786973147774327</v>
+        <v>1.033866382376237</v>
       </c>
       <c r="F24">
-        <v>0.9824492931582348</v>
+        <v>1.042442863754502</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047537507441937</v>
+        <v>1.031984917791739</v>
       </c>
       <c r="J24">
-        <v>0.9879251304234048</v>
+        <v>1.030598860055185</v>
       </c>
       <c r="K24">
-        <v>1.037527880558565</v>
+        <v>1.03202037006931</v>
       </c>
       <c r="L24">
-        <v>0.993109150409779</v>
+        <v>1.037243906341116</v>
       </c>
       <c r="M24">
-        <v>0.9967917921823052</v>
+        <v>1.045790594679665</v>
       </c>
       <c r="N24">
-        <v>0.9893280974252024</v>
+        <v>1.032062428647805</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9701251333070804</v>
+        <v>1.026468136884543</v>
       </c>
       <c r="D25">
-        <v>1.028799846543127</v>
+        <v>1.029406086815867</v>
       </c>
       <c r="E25">
-        <v>0.9884829451555379</v>
+        <v>1.035783814041064</v>
       </c>
       <c r="F25">
-        <v>0.9936249883703625</v>
+        <v>1.044569524920671</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049888679348149</v>
+        <v>1.032176877424508</v>
       </c>
       <c r="J25">
-        <v>0.9957014999563777</v>
+        <v>1.032117715078505</v>
       </c>
       <c r="K25">
-        <v>1.040966947106615</v>
+        <v>1.03247884686872</v>
       </c>
       <c r="L25">
-        <v>1.00126271895451</v>
+        <v>1.038836394193408</v>
       </c>
       <c r="M25">
-        <v>1.006323080931115</v>
+        <v>1.047594746742769</v>
       </c>
       <c r="N25">
-        <v>0.9971155102948742</v>
+        <v>1.033583440619473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02817156464667</v>
+        <v>0.9787486902028748</v>
       </c>
       <c r="D2">
-        <v>1.030020546426149</v>
+        <v>1.032489959824373</v>
       </c>
       <c r="E2">
-        <v>1.037310853597163</v>
+        <v>0.9959157319624569</v>
       </c>
       <c r="F2">
-        <v>1.046259149266063</v>
+        <v>1.002086163069428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032317986453552</v>
+        <v>1.051595234031259</v>
       </c>
       <c r="J2">
-        <v>1.03332536267446</v>
+        <v>1.001584150808146</v>
       </c>
       <c r="K2">
-        <v>1.032832768017343</v>
+        <v>1.043514480122229</v>
       </c>
       <c r="L2">
-        <v>1.040102101284833</v>
+        <v>1.007432261926679</v>
       </c>
       <c r="M2">
-        <v>1.049025086651996</v>
+        <v>1.01351651063859</v>
       </c>
       <c r="N2">
-        <v>1.034792803213533</v>
+        <v>1.003006515185601</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029407233558643</v>
+        <v>0.9847740672674926</v>
       </c>
       <c r="D3">
-        <v>1.030461415834738</v>
+        <v>1.035053479094007</v>
       </c>
       <c r="E3">
-        <v>1.038418322210282</v>
+        <v>1.001118686306192</v>
       </c>
       <c r="F3">
-        <v>1.047482177024637</v>
+        <v>1.007992700173137</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03241346095033</v>
+        <v>1.052740984937823</v>
       </c>
       <c r="J3">
-        <v>1.034200060393832</v>
+        <v>1.00568859171133</v>
       </c>
       <c r="K3">
-        <v>1.033082893208857</v>
+        <v>1.045256660653395</v>
       </c>
       <c r="L3">
-        <v>1.041018563157604</v>
+        <v>1.011737273315924</v>
       </c>
       <c r="M3">
-        <v>1.050058651655641</v>
+        <v>1.018524324259569</v>
       </c>
       <c r="N3">
-        <v>1.035668743103996</v>
+        <v>1.007116784865654</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03020627175964</v>
+        <v>0.9885720381155524</v>
       </c>
       <c r="D4">
-        <v>1.030744229107144</v>
+        <v>1.036660693380238</v>
       </c>
       <c r="E4">
-        <v>1.039134339492755</v>
+        <v>1.00440206731922</v>
       </c>
       <c r="F4">
-        <v>1.048271815459117</v>
+        <v>1.011712408882927</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032471999206458</v>
+        <v>1.05344048086709</v>
       </c>
       <c r="J4">
-        <v>1.034765059320114</v>
+        <v>1.008272659754347</v>
       </c>
       <c r="K4">
-        <v>1.033241558178008</v>
+        <v>1.046335908808849</v>
       </c>
       <c r="L4">
-        <v>1.041610403523623</v>
+        <v>1.014447652032532</v>
       </c>
       <c r="M4">
-        <v>1.050725137056315</v>
+        <v>1.021671501172499</v>
       </c>
       <c r="N4">
-        <v>1.03623454439356</v>
+        <v>1.009704522581688</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030542064884434</v>
+        <v>0.9901457079201731</v>
       </c>
       <c r="D5">
-        <v>1.030862532816558</v>
+        <v>1.037324304021739</v>
       </c>
       <c r="E5">
-        <v>1.039435213475144</v>
+        <v>1.005763346289992</v>
       </c>
       <c r="F5">
-        <v>1.048603363537542</v>
+        <v>1.013252724597245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032495831543465</v>
+        <v>1.053724701411492</v>
       </c>
       <c r="J5">
-        <v>1.035002349455757</v>
+        <v>1.009342561960873</v>
       </c>
       <c r="K5">
-        <v>1.033307497027641</v>
+        <v>1.046778352273792</v>
       </c>
       <c r="L5">
-        <v>1.04185893383425</v>
+        <v>1.015569839217023</v>
       </c>
       <c r="M5">
-        <v>1.051004777618448</v>
+        <v>1.022973132726364</v>
       </c>
       <c r="N5">
-        <v>1.036472171508413</v>
+        <v>1.010775944172068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030598438913854</v>
+        <v>0.9904086172994044</v>
       </c>
       <c r="D6">
-        <v>1.030882361803813</v>
+        <v>1.037435027623388</v>
       </c>
       <c r="E6">
-        <v>1.039485723387253</v>
+        <v>1.005990818207578</v>
       </c>
       <c r="F6">
-        <v>1.048659007562714</v>
+        <v>1.01351000365531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032499787482363</v>
+        <v>1.053771850780703</v>
       </c>
       <c r="J6">
-        <v>1.035042177747753</v>
+        <v>1.009521259884792</v>
       </c>
       <c r="K6">
-        <v>1.033318523597193</v>
+        <v>1.046851985920819</v>
       </c>
       <c r="L6">
-        <v>1.041900646816567</v>
+        <v>1.015757268591244</v>
       </c>
       <c r="M6">
-        <v>1.051051698274787</v>
+        <v>1.02319044933387</v>
       </c>
       <c r="N6">
-        <v>1.036512056361152</v>
+        <v>1.010954895867535</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030210759122265</v>
+        <v>0.9885931544736181</v>
       </c>
       <c r="D7">
-        <v>1.030745812212391</v>
+        <v>1.036669607616293</v>
       </c>
       <c r="E7">
-        <v>1.039138360332957</v>
+        <v>1.004420330542551</v>
       </c>
       <c r="F7">
-        <v>1.048276247253745</v>
+        <v>1.011733081499198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032472320710888</v>
+        <v>1.053444317101834</v>
       </c>
       <c r="J7">
-        <v>1.03476823092593</v>
+        <v>1.008287019491027</v>
       </c>
       <c r="K7">
-        <v>1.033242442260326</v>
+        <v>1.046341864755669</v>
       </c>
       <c r="L7">
-        <v>1.041613725494255</v>
+        <v>1.014462713590521</v>
       </c>
       <c r="M7">
-        <v>1.050728875787133</v>
+        <v>1.021688976775518</v>
       </c>
       <c r="N7">
-        <v>1.03623772050342</v>
+        <v>1.009718902710842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028589274370517</v>
+        <v>0.9808065930060819</v>
       </c>
       <c r="D8">
-        <v>1.030170047995659</v>
+        <v>1.033367162339148</v>
       </c>
       <c r="E8">
-        <v>1.037685250550765</v>
+        <v>0.9976918890062179</v>
       </c>
       <c r="F8">
-        <v>1.046672838712672</v>
+        <v>1.004104106785432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032350922536984</v>
+        <v>1.051991229846296</v>
       </c>
       <c r="J8">
-        <v>1.033621176462157</v>
+        <v>1.002986593063762</v>
       </c>
       <c r="K8">
-        <v>1.032917956856678</v>
+        <v>1.044113354795805</v>
       </c>
       <c r="L8">
-        <v>1.040412067178979</v>
+        <v>1.008903216160657</v>
       </c>
       <c r="M8">
-        <v>1.049374861560514</v>
+        <v>1.015228770852901</v>
       </c>
       <c r="N8">
-        <v>1.035089037090739</v>
+        <v>1.004410949070083</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025727898959768</v>
+        <v>0.9662571929990486</v>
       </c>
       <c r="D9">
-        <v>1.029136748421671</v>
+        <v>1.027139389177354</v>
       </c>
       <c r="E9">
-        <v>1.035120113790983</v>
+        <v>0.9851546495435595</v>
       </c>
       <c r="F9">
-        <v>1.043834027412905</v>
+        <v>0.9898282014896536</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032112249757243</v>
+        <v>1.049101157819051</v>
       </c>
       <c r="J9">
-        <v>1.031592283380329</v>
+        <v>0.9930604687202647</v>
       </c>
       <c r="K9">
-        <v>1.032321878765232</v>
+        <v>1.039806976449047</v>
       </c>
       <c r="L9">
-        <v>1.038285564544728</v>
+        <v>0.9984932634694982</v>
       </c>
       <c r="M9">
-        <v>1.046971259594827</v>
+        <v>1.003088493379277</v>
       </c>
       <c r="N9">
-        <v>1.033057262748018</v>
+        <v>0.9944707284914753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023817389417192</v>
+        <v>0.9559141983100918</v>
       </c>
       <c r="D10">
-        <v>1.028435421405652</v>
+        <v>1.022692228199947</v>
       </c>
       <c r="E10">
-        <v>1.033406858807775</v>
+        <v>0.9762726330720909</v>
       </c>
       <c r="F10">
-        <v>1.041932390233029</v>
+        <v>0.9796745768438962</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031936571484487</v>
+        <v>1.046939364405095</v>
       </c>
       <c r="J10">
-        <v>1.030234462923442</v>
+        <v>0.985993119842323</v>
       </c>
       <c r="K10">
-        <v>1.031908266848974</v>
+        <v>1.036663508346398</v>
       </c>
       <c r="L10">
-        <v>1.036861748026829</v>
+        <v>0.9910839278056544</v>
       </c>
       <c r="M10">
-        <v>1.045356926122214</v>
+        <v>0.9944207733719315</v>
       </c>
       <c r="N10">
-        <v>1.031697514030337</v>
+        <v>0.9873933431674908</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022989386706896</v>
+        <v>0.9512610122857853</v>
       </c>
       <c r="D11">
-        <v>1.028128810055141</v>
+        <v>1.020691360585141</v>
       </c>
       <c r="E11">
-        <v>1.032664228554953</v>
+        <v>0.9722856552411386</v>
       </c>
       <c r="F11">
-        <v>1.041106781368141</v>
+        <v>0.9751076536831972</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03185658813384</v>
+        <v>1.045944119459369</v>
       </c>
       <c r="J11">
-        <v>1.02964525102772</v>
+        <v>0.9828120004309232</v>
       </c>
       <c r="K11">
-        <v>1.031725340812541</v>
+        <v>1.035233340077304</v>
       </c>
       <c r="L11">
-        <v>1.036243742582085</v>
+        <v>0.9877498583143888</v>
       </c>
       <c r="M11">
-        <v>1.044655055907513</v>
+        <v>0.9905147828031629</v>
       </c>
       <c r="N11">
-        <v>1.03110746538614</v>
+        <v>0.9842077062016472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022681715226343</v>
+        <v>0.9495042728771104</v>
       </c>
       <c r="D12">
-        <v>1.028014482443979</v>
+        <v>1.019936363758823</v>
       </c>
       <c r="E12">
-        <v>1.032388263493682</v>
+        <v>0.9707819317130312</v>
       </c>
       <c r="F12">
-        <v>1.040799782771414</v>
+        <v>0.9733838535776773</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03182629196342</v>
+        <v>1.045565227178457</v>
       </c>
       <c r="J12">
-        <v>1.029426199229555</v>
+        <v>0.9816108695780469</v>
       </c>
       <c r="K12">
-        <v>1.031656820200518</v>
+        <v>1.034691328633513</v>
       </c>
       <c r="L12">
-        <v>1.036013963187344</v>
+        <v>0.986491160478475</v>
       </c>
       <c r="M12">
-        <v>1.044393919811891</v>
+        <v>0.9890393812202065</v>
       </c>
       <c r="N12">
-        <v>1.030888102509296</v>
+        <v>0.9830048696051881</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022747717033964</v>
+        <v>0.949882418154988</v>
       </c>
       <c r="D13">
-        <v>1.028039025916199</v>
+        <v>1.020098854710065</v>
       </c>
       <c r="E13">
-        <v>1.032447464359042</v>
+        <v>0.9711055439411925</v>
       </c>
       <c r="F13">
-        <v>1.040865650011373</v>
+        <v>0.9737548881466208</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031832817130157</v>
+        <v>1.045646923345401</v>
       </c>
       <c r="J13">
-        <v>1.029473195316047</v>
+        <v>0.9818694229456222</v>
       </c>
       <c r="K13">
-        <v>1.031671544042497</v>
+        <v>1.034808086935191</v>
       </c>
       <c r="L13">
-        <v>1.03606326184255</v>
+        <v>0.9867620966884528</v>
       </c>
       <c r="M13">
-        <v>1.044449953886516</v>
+        <v>0.9893569977188682</v>
       </c>
       <c r="N13">
-        <v>1.030935165335622</v>
+        <v>0.9832637901482018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022963956839462</v>
+        <v>0.9511163907528296</v>
       </c>
       <c r="D14">
-        <v>1.028119368633059</v>
+        <v>1.020629195686338</v>
       </c>
       <c r="E14">
-        <v>1.032641419638618</v>
+        <v>0.9721618315683881</v>
       </c>
       <c r="F14">
-        <v>1.041081411526799</v>
+        <v>0.974965735006461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031854095806751</v>
+        <v>1.045912990048401</v>
       </c>
       <c r="J14">
-        <v>1.029627148071355</v>
+        <v>0.9827131211591159</v>
       </c>
       <c r="K14">
-        <v>1.03171968857253</v>
+        <v>1.03518875973819</v>
       </c>
       <c r="L14">
-        <v>1.036224753538951</v>
+        <v>0.9876462360680227</v>
       </c>
       <c r="M14">
-        <v>1.044633479102696</v>
+        <v>0.9903933360576547</v>
       </c>
       <c r="N14">
-        <v>1.0310893367215</v>
+        <v>0.9841086865099324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023097174060847</v>
+        <v>0.9518728599509139</v>
       </c>
       <c r="D15">
-        <v>1.028168812385732</v>
+        <v>1.020954379351895</v>
       </c>
       <c r="E15">
-        <v>1.03276090604266</v>
+        <v>0.9728095757416564</v>
       </c>
       <c r="F15">
-        <v>1.04121430543314</v>
+        <v>0.9757080828663676</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031867128580078</v>
+        <v>1.046075691380138</v>
       </c>
       <c r="J15">
-        <v>1.029721977908785</v>
+        <v>0.9832303217173379</v>
       </c>
       <c r="K15">
-        <v>1.031749276026882</v>
+        <v>1.0354218629426</v>
       </c>
       <c r="L15">
-        <v>1.036324224080171</v>
+        <v>0.9881882530687293</v>
       </c>
       <c r="M15">
-        <v>1.04474649798505</v>
+        <v>0.9910285559850297</v>
       </c>
       <c r="N15">
-        <v>1.031184301228177</v>
+        <v>0.9846266215522705</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023872325368482</v>
+        <v>0.956219161490262</v>
       </c>
       <c r="D16">
-        <v>1.028455708588133</v>
+        <v>1.022823394002779</v>
       </c>
       <c r="E16">
-        <v>1.033456128137704</v>
+        <v>0.9765341321315554</v>
       </c>
       <c r="F16">
-        <v>1.041987136912546</v>
+        <v>0.9799739260273317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031941797363679</v>
+        <v>1.047004141854464</v>
       </c>
       <c r="J16">
-        <v>1.030273540122215</v>
+        <v>0.9862015802459503</v>
       </c>
       <c r="K16">
-        <v>1.031920326503756</v>
+        <v>1.036756935204072</v>
       </c>
       <c r="L16">
-        <v>1.036902731606338</v>
+        <v>0.9913024344936762</v>
       </c>
       <c r="M16">
-        <v>1.045403446689255</v>
+        <v>0.9946766499433781</v>
       </c>
       <c r="N16">
-        <v>1.031736646723216</v>
+        <v>0.9876020996088015</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024358356999422</v>
+        <v>0.9588973170585721</v>
       </c>
       <c r="D17">
-        <v>1.028634887425422</v>
+        <v>1.023975310238871</v>
       </c>
       <c r="E17">
-        <v>1.033892012482009</v>
+        <v>0.9788316188773156</v>
       </c>
       <c r="F17">
-        <v>1.042471326603344</v>
+        <v>0.9826029246193797</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031987588201136</v>
+        <v>1.047570472508342</v>
       </c>
       <c r="J17">
-        <v>1.030619180024689</v>
+        <v>0.9880320869405431</v>
       </c>
       <c r="K17">
-        <v>1.032026597857157</v>
+        <v>1.037575630549896</v>
       </c>
       <c r="L17">
-        <v>1.0372652156747</v>
+        <v>0.993221273744479</v>
       </c>
       <c r="M17">
-        <v>1.045814768273885</v>
+        <v>0.9969230220976449</v>
       </c>
       <c r="N17">
-        <v>1.032082777473997</v>
+        <v>0.989435205832863</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024641779904964</v>
+        <v>0.9604427470883943</v>
       </c>
       <c r="D18">
-        <v>1.028739116371629</v>
+        <v>1.024639981005731</v>
       </c>
       <c r="E18">
-        <v>1.034146181369793</v>
+        <v>0.9801582152323975</v>
       </c>
       <c r="F18">
-        <v>1.042753535348707</v>
+        <v>0.984120074603241</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032013919550868</v>
+        <v>1.047895117589085</v>
       </c>
       <c r="J18">
-        <v>1.030820663851126</v>
+        <v>0.9890882231387866</v>
       </c>
       <c r="K18">
-        <v>1.032088214561481</v>
+        <v>1.038046531516263</v>
       </c>
       <c r="L18">
-        <v>1.037476503486256</v>
+        <v>0.9943284648134394</v>
       </c>
       <c r="M18">
-        <v>1.046054410017996</v>
+        <v>0.9982186642301555</v>
       </c>
       <c r="N18">
-        <v>1.032284547430578</v>
+        <v>0.9904928418656485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02473840782714</v>
+        <v>0.9609669278009197</v>
       </c>
       <c r="D19">
-        <v>1.028774607677994</v>
+        <v>1.024865405549765</v>
       </c>
       <c r="E19">
-        <v>1.034232833717592</v>
+        <v>0.9806083082670539</v>
       </c>
       <c r="F19">
-        <v>1.04284972552511</v>
+        <v>0.9846346718587049</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032022833764723</v>
+        <v>1.048004858068008</v>
       </c>
       <c r="J19">
-        <v>1.030889343980569</v>
+        <v>0.9894464151774243</v>
       </c>
       <c r="K19">
-        <v>1.032109161529225</v>
+        <v>1.038205983921904</v>
       </c>
       <c r="L19">
-        <v>1.037548522965141</v>
+        <v>0.9947039865457401</v>
       </c>
       <c r="M19">
-        <v>1.046136075031644</v>
+        <v>0.9986580089524532</v>
       </c>
       <c r="N19">
-        <v>1.032353325093682</v>
+        <v>0.9908515425780662</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02430621778689</v>
+        <v>0.9586117174429062</v>
       </c>
       <c r="D20">
-        <v>1.028615692493618</v>
+        <v>1.023852470955601</v>
       </c>
       <c r="E20">
-        <v>1.033845253998067</v>
+        <v>0.9785865265285577</v>
       </c>
       <c r="F20">
-        <v>1.042419399463508</v>
+        <v>0.9823225567499554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031982714333703</v>
+        <v>1.047510300963146</v>
       </c>
       <c r="J20">
-        <v>1.030582108776806</v>
+        <v>0.9878368967168106</v>
       </c>
       <c r="K20">
-        <v>1.032015234162721</v>
+        <v>1.03748848094416</v>
       </c>
       <c r="L20">
-        <v>1.037226339371019</v>
+        <v>0.9930166548465045</v>
       </c>
       <c r="M20">
-        <v>1.045770665836141</v>
+        <v>0.9966835316823881</v>
       </c>
       <c r="N20">
-        <v>1.03204565358069</v>
+        <v>0.9892397384166244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022900282791307</v>
+        <v>0.950753816930723</v>
       </c>
       <c r="D21">
-        <v>1.028095721794414</v>
+        <v>1.02047335293153</v>
       </c>
       <c r="E21">
-        <v>1.032584307947534</v>
+        <v>0.9718514237607906</v>
       </c>
       <c r="F21">
-        <v>1.041017884284153</v>
+        <v>0.9746099441266106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031847845956053</v>
+        <v>1.045834897140885</v>
       </c>
       <c r="J21">
-        <v>1.029581818145445</v>
+        <v>0.982465223557158</v>
       </c>
       <c r="K21">
-        <v>1.031705527033981</v>
+        <v>1.03507696226117</v>
       </c>
       <c r="L21">
-        <v>1.036177204475474</v>
+        <v>0.9873864505712803</v>
       </c>
       <c r="M21">
-        <v>1.044579447390736</v>
+        <v>0.9900888512955702</v>
       </c>
       <c r="N21">
-        <v>1.031043942421896</v>
+        <v>0.9838604368649456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022015652072926</v>
+        <v>0.9456480673968305</v>
       </c>
       <c r="D22">
-        <v>1.027766259482751</v>
+        <v>1.018280308213763</v>
       </c>
       <c r="E22">
-        <v>1.031790810911937</v>
+        <v>0.9674840683244262</v>
       </c>
       <c r="F22">
-        <v>1.040134781649689</v>
+        <v>0.9696008891309593</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031759654398088</v>
+        <v>1.044728011651297</v>
       </c>
       <c r="J22">
-        <v>1.028951782344199</v>
+        <v>0.9789741147634647</v>
       </c>
       <c r="K22">
-        <v>1.031507483141244</v>
+        <v>1.033498123497064</v>
       </c>
       <c r="L22">
-        <v>1.035516271032875</v>
+        <v>0.9837284152828623</v>
       </c>
       <c r="M22">
-        <v>1.043827990971906</v>
+        <v>0.9857996084790749</v>
       </c>
       <c r="N22">
-        <v>1.030413011897547</v>
+        <v>0.9803643702963291</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022484675568429</v>
+        <v>0.948371143190754</v>
       </c>
       <c r="D23">
-        <v>1.027941153424203</v>
+        <v>1.019449545054495</v>
       </c>
       <c r="E23">
-        <v>1.032211524805796</v>
+        <v>0.9698124454240968</v>
       </c>
       <c r="F23">
-        <v>1.040603113235093</v>
+        <v>0.9722721033129634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031806727788923</v>
+        <v>1.045319979359193</v>
       </c>
       <c r="J23">
-        <v>1.029285882441282</v>
+        <v>0.9808360885414951</v>
       </c>
       <c r="K23">
-        <v>1.031612784021551</v>
+        <v>1.034341179466653</v>
       </c>
       <c r="L23">
-        <v>1.035866768249379</v>
+        <v>0.9856793029690087</v>
       </c>
       <c r="M23">
-        <v>1.04422658881602</v>
+        <v>0.9880875362243557</v>
       </c>
       <c r="N23">
-        <v>1.03074758645509</v>
+        <v>0.9822289882906957</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024329777472366</v>
+        <v>0.9587408190454534</v>
       </c>
       <c r="D24">
-        <v>1.02862436673197</v>
+        <v>1.023907999024418</v>
       </c>
       <c r="E24">
-        <v>1.033866382376237</v>
+        <v>0.9786973147774334</v>
       </c>
       <c r="F24">
-        <v>1.042442863754502</v>
+        <v>0.9824492931582353</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031984917791739</v>
+        <v>1.047537507441936</v>
       </c>
       <c r="J24">
-        <v>1.030598860055185</v>
+        <v>0.9879251304234057</v>
       </c>
       <c r="K24">
-        <v>1.03202037006931</v>
+        <v>1.037527880558565</v>
       </c>
       <c r="L24">
-        <v>1.037243906341116</v>
+        <v>0.9931091504097797</v>
       </c>
       <c r="M24">
-        <v>1.045790594679665</v>
+        <v>0.9967917921823058</v>
       </c>
       <c r="N24">
-        <v>1.032062428647805</v>
+        <v>0.9893280974252033</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026468136884543</v>
+        <v>0.9701251333070807</v>
       </c>
       <c r="D25">
-        <v>1.029406086815867</v>
+        <v>1.028799846543127</v>
       </c>
       <c r="E25">
-        <v>1.035783814041064</v>
+        <v>0.9884829451555383</v>
       </c>
       <c r="F25">
-        <v>1.044569524920671</v>
+        <v>0.9936249883703627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032176877424508</v>
+        <v>1.049888679348149</v>
       </c>
       <c r="J25">
-        <v>1.032117715078505</v>
+        <v>0.9957014999563781</v>
       </c>
       <c r="K25">
-        <v>1.03247884686872</v>
+        <v>1.040966947106615</v>
       </c>
       <c r="L25">
-        <v>1.038836394193408</v>
+        <v>1.001262718954511</v>
       </c>
       <c r="M25">
-        <v>1.047594746742769</v>
+        <v>1.006323080931115</v>
       </c>
       <c r="N25">
-        <v>1.033583440619473</v>
+        <v>0.9971155102948747</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9787486902028748</v>
+        <v>0.9694968824040676</v>
       </c>
       <c r="D2">
-        <v>1.032489959824373</v>
+        <v>1.031715706119801</v>
       </c>
       <c r="E2">
-        <v>0.9959157319624569</v>
+        <v>0.9799828013711949</v>
       </c>
       <c r="F2">
-        <v>1.002086163069428</v>
+        <v>1.003408351595233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051595234031259</v>
+        <v>1.052614864844927</v>
       </c>
       <c r="J2">
-        <v>1.001584150808146</v>
+        <v>0.9926298529485162</v>
       </c>
       <c r="K2">
-        <v>1.043514480122229</v>
+        <v>1.042750189770582</v>
       </c>
       <c r="L2">
-        <v>1.007432261926679</v>
+        <v>0.9917282358735571</v>
       </c>
       <c r="M2">
-        <v>1.01351651063859</v>
+        <v>1.014820406021586</v>
       </c>
       <c r="N2">
-        <v>1.003006515185601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.001192782754528</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.020301456885944</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041298369632937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9847740672674926</v>
+        <v>0.9740097025127753</v>
       </c>
       <c r="D3">
-        <v>1.035053479094007</v>
+        <v>1.034439458255106</v>
       </c>
       <c r="E3">
-        <v>1.001118686306192</v>
+        <v>0.9835734474757747</v>
       </c>
       <c r="F3">
-        <v>1.007992700173137</v>
+        <v>1.006786073816796</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052740984937823</v>
+        <v>1.053507996487437</v>
       </c>
       <c r="J3">
-        <v>1.00568859171133</v>
+        <v>0.9952348690385588</v>
       </c>
       <c r="K3">
-        <v>1.045256660653395</v>
+        <v>1.044649856380049</v>
       </c>
       <c r="L3">
-        <v>1.011737273315924</v>
+        <v>0.9944209152111908</v>
       </c>
       <c r="M3">
-        <v>1.018524324259569</v>
+        <v>1.017332855703094</v>
       </c>
       <c r="N3">
-        <v>1.007116784865654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.002124030703187</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.022289947248126</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042638935470448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9885720381155524</v>
+        <v>0.9768673404574145</v>
       </c>
       <c r="D4">
-        <v>1.036660693380238</v>
+        <v>1.036133409336444</v>
       </c>
       <c r="E4">
-        <v>1.00440206731922</v>
+        <v>0.9858532923693689</v>
       </c>
       <c r="F4">
-        <v>1.011712408882927</v>
+        <v>1.00893443788785</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05344048086709</v>
+        <v>1.054042170556441</v>
       </c>
       <c r="J4">
-        <v>1.008272659754347</v>
+        <v>0.9968818813006854</v>
       </c>
       <c r="K4">
-        <v>1.046335908808849</v>
+        <v>1.045814450626915</v>
       </c>
       <c r="L4">
-        <v>1.014447652032532</v>
+        <v>0.9961255085673676</v>
       </c>
       <c r="M4">
-        <v>1.021671501172499</v>
+        <v>1.01892621493101</v>
       </c>
       <c r="N4">
-        <v>1.009704522581688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00271176662698</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.023551016015722</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043463288865272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9901457079201731</v>
+        <v>0.9780542853366568</v>
       </c>
       <c r="D5">
-        <v>1.037324304021739</v>
+        <v>1.036820365902871</v>
       </c>
       <c r="E5">
-        <v>1.005763346289992</v>
+        <v>0.9868016689979584</v>
       </c>
       <c r="F5">
-        <v>1.013252724597245</v>
+        <v>1.009828998048835</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053724701411492</v>
+        <v>1.054251776611012</v>
       </c>
       <c r="J5">
-        <v>1.009342561960873</v>
+        <v>0.9975653321433652</v>
       </c>
       <c r="K5">
-        <v>1.046778352273792</v>
+        <v>1.046279834987323</v>
       </c>
       <c r="L5">
-        <v>1.015569839217023</v>
+        <v>0.9968333669413852</v>
       </c>
       <c r="M5">
-        <v>1.022973132726364</v>
+        <v>1.019588563744784</v>
       </c>
       <c r="N5">
-        <v>1.010775944172068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.0029553943301</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.024075233207698</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043799485926269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9904086172994044</v>
+        <v>0.9782527491874543</v>
       </c>
       <c r="D6">
-        <v>1.037435027623388</v>
+        <v>1.036923559183466</v>
       </c>
       <c r="E6">
-        <v>1.005990818207578</v>
+        <v>0.9869603250628928</v>
       </c>
       <c r="F6">
-        <v>1.01351000365531</v>
+        <v>1.009978702231071</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053771850780703</v>
+        <v>1.054280661119951</v>
       </c>
       <c r="J6">
-        <v>1.009521259884792</v>
+        <v>0.9976795696782922</v>
       </c>
       <c r="K6">
-        <v>1.046851985920819</v>
+        <v>1.046345994442321</v>
       </c>
       <c r="L6">
-        <v>1.015757268591244</v>
+        <v>0.9969517142314399</v>
       </c>
       <c r="M6">
-        <v>1.02319044933387</v>
+        <v>1.019699342265179</v>
       </c>
       <c r="N6">
-        <v>1.010954895867535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.002996100535755</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.02416290903271</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043854965548817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9885931544736181</v>
+        <v>0.976883256375992</v>
       </c>
       <c r="D7">
-        <v>1.036669607616293</v>
+        <v>1.036111273391725</v>
       </c>
       <c r="E7">
-        <v>1.004420330542551</v>
+        <v>0.9858660037363475</v>
       </c>
       <c r="F7">
-        <v>1.011733081499198</v>
+        <v>1.008946424489774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053444317101834</v>
+        <v>1.054029050242699</v>
       </c>
       <c r="J7">
-        <v>1.008287019491027</v>
+        <v>0.996891048410788</v>
       </c>
       <c r="K7">
-        <v>1.046341864755669</v>
+        <v>1.045789697503903</v>
       </c>
       <c r="L7">
-        <v>1.014462713590521</v>
+        <v>0.9961350010304733</v>
       </c>
       <c r="M7">
-        <v>1.021688976775518</v>
+        <v>1.01893509441483</v>
       </c>
       <c r="N7">
-        <v>1.009718902710842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.002715035448619</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.023558043702273</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043465798598075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9808065930060819</v>
+        <v>0.9710352818041537</v>
       </c>
       <c r="D8">
-        <v>1.033367162339148</v>
+        <v>1.03260585356644</v>
       </c>
       <c r="E8">
-        <v>0.9976918890062179</v>
+        <v>0.9812055118255798</v>
       </c>
       <c r="F8">
-        <v>1.004104106785432</v>
+        <v>1.004557769386477</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051991229846296</v>
+        <v>1.052903121643441</v>
       </c>
       <c r="J8">
-        <v>1.002986593063762</v>
+        <v>0.9935184033499268</v>
       </c>
       <c r="K8">
-        <v>1.044113354795805</v>
+        <v>1.043361553493803</v>
       </c>
       <c r="L8">
-        <v>1.008903216160657</v>
+        <v>0.9926462320148454</v>
       </c>
       <c r="M8">
-        <v>1.015228770852901</v>
+        <v>1.015676354714089</v>
       </c>
       <c r="N8">
-        <v>1.004410949070083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.001510635971261</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.020978902249435</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04175346688005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9662571929990486</v>
+        <v>0.9602259581434257</v>
       </c>
       <c r="D9">
-        <v>1.027139389177354</v>
+        <v>1.025947010716044</v>
       </c>
       <c r="E9">
-        <v>0.9851546495435595</v>
+        <v>0.9726427993667475</v>
       </c>
       <c r="F9">
-        <v>0.9898282014896536</v>
+        <v>0.996524668613749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049101157819051</v>
+        <v>1.050606670493543</v>
       </c>
       <c r="J9">
-        <v>0.9930604687202647</v>
+        <v>0.9872658861201588</v>
       </c>
       <c r="K9">
-        <v>1.039806976449047</v>
+        <v>1.038632689353241</v>
       </c>
       <c r="L9">
-        <v>0.9984932634694982</v>
+        <v>0.9861958907662133</v>
       </c>
       <c r="M9">
-        <v>1.003088493379277</v>
+        <v>1.009674383424476</v>
       </c>
       <c r="N9">
-        <v>0.9944707284914753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9992700114279575</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.016228594098217</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038406695480428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9559141983100918</v>
+        <v>0.9528095967524143</v>
       </c>
       <c r="D10">
-        <v>1.022692228199947</v>
+        <v>1.021101465566069</v>
       </c>
       <c r="E10">
-        <v>0.9762726330720909</v>
+        <v>0.9668229245988248</v>
       </c>
       <c r="F10">
-        <v>0.9796745768438962</v>
+        <v>0.991315393749345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046939364405095</v>
+        <v>1.048825044833017</v>
       </c>
       <c r="J10">
-        <v>0.985993119842323</v>
+        <v>0.9830292353278736</v>
       </c>
       <c r="K10">
-        <v>1.036663508346398</v>
+        <v>1.035099899453644</v>
       </c>
       <c r="L10">
-        <v>0.9910839278056544</v>
+        <v>0.9818182019998453</v>
       </c>
       <c r="M10">
-        <v>0.9944207733719315</v>
+        <v>1.005843242056796</v>
       </c>
       <c r="N10">
-        <v>0.9873933431674908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.997753507021752</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.013249451611499</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035925579649868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9512610122857853</v>
+        <v>0.950860371579892</v>
       </c>
       <c r="D11">
-        <v>1.020691360585141</v>
+        <v>1.018835753426407</v>
       </c>
       <c r="E11">
-        <v>0.9722856552411386</v>
+        <v>0.9654452073986554</v>
       </c>
       <c r="F11">
-        <v>0.9751076536831972</v>
+        <v>0.9919079601975609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045944119459369</v>
+        <v>1.047958405731333</v>
       </c>
       <c r="J11">
-        <v>0.9828120004309232</v>
+        <v>0.9824306027776695</v>
       </c>
       <c r="K11">
-        <v>1.035233340077304</v>
+        <v>1.033410987307601</v>
       </c>
       <c r="L11">
-        <v>0.9877498583143888</v>
+        <v>0.9810495846366426</v>
       </c>
       <c r="M11">
-        <v>0.9905147828031629</v>
+        <v>1.006984111198445</v>
       </c>
       <c r="N11">
-        <v>0.9842077062016472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9975955235405244</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.014600922999931</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034764279347168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9495042728771104</v>
+        <v>0.9506233745625915</v>
       </c>
       <c r="D12">
-        <v>1.019936363758823</v>
+        <v>1.018013637475623</v>
       </c>
       <c r="E12">
-        <v>0.9707819317130312</v>
+        <v>0.9653731017679291</v>
       </c>
       <c r="F12">
-        <v>0.9733838535776773</v>
+        <v>0.9931106715602617</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045565227178457</v>
+        <v>1.047644802585686</v>
       </c>
       <c r="J12">
-        <v>0.9816108695780469</v>
+        <v>0.9826751103751049</v>
       </c>
       <c r="K12">
-        <v>1.034691328633513</v>
+        <v>1.032803674852104</v>
       </c>
       <c r="L12">
-        <v>0.986491160478475</v>
+        <v>0.9811951890126995</v>
       </c>
       <c r="M12">
-        <v>0.9890393812202065</v>
+        <v>1.008371061260879</v>
       </c>
       <c r="N12">
-        <v>0.9830048696051881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9977342307818673</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.016032266145169</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034334889399927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.949882418154988</v>
+        <v>0.9516786761202516</v>
       </c>
       <c r="D13">
-        <v>1.020098854710065</v>
+        <v>1.018198012391345</v>
       </c>
       <c r="E13">
-        <v>0.9711055439411925</v>
+        <v>0.9662898127055601</v>
       </c>
       <c r="F13">
-        <v>0.9737548881466208</v>
+        <v>0.994880538050738</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045646923345401</v>
+        <v>1.047716200549022</v>
       </c>
       <c r="J13">
-        <v>0.9818694229456222</v>
+        <v>0.9835781415204332</v>
       </c>
       <c r="K13">
-        <v>1.034808086935191</v>
+        <v>1.032941786737803</v>
       </c>
       <c r="L13">
-        <v>0.9867620966884528</v>
+        <v>0.9820463379449006</v>
       </c>
       <c r="M13">
-        <v>0.9893569977188682</v>
+        <v>1.010062114474569</v>
       </c>
       <c r="N13">
-        <v>0.9832637901482018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9981075485603685</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.017651618528807</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034430044465668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9511163907528296</v>
+        <v>0.9529833473639515</v>
       </c>
       <c r="D14">
-        <v>1.020629195686338</v>
+        <v>1.018771207122093</v>
       </c>
       <c r="E14">
-        <v>0.9721618315683881</v>
+        <v>0.9673628738255621</v>
       </c>
       <c r="F14">
-        <v>0.974965735006461</v>
+        <v>0.9963436562073232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045912990048401</v>
+        <v>1.04793423915099</v>
       </c>
       <c r="J14">
-        <v>0.9827131211591159</v>
+        <v>0.9844905452279459</v>
       </c>
       <c r="K14">
-        <v>1.03518875973819</v>
+        <v>1.033364117080851</v>
       </c>
       <c r="L14">
-        <v>0.9876462360680227</v>
+        <v>0.9829455075383994</v>
       </c>
       <c r="M14">
-        <v>0.9903933360576547</v>
+        <v>1.011351916671182</v>
       </c>
       <c r="N14">
-        <v>0.9841086865099324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9984687532587538</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.018847394035778</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03473007202289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9518728599509139</v>
+        <v>0.9535951560500212</v>
       </c>
       <c r="D15">
-        <v>1.020954379351895</v>
+        <v>1.019108068208946</v>
       </c>
       <c r="E15">
-        <v>0.9728095757416564</v>
+        <v>0.9678512132572968</v>
       </c>
       <c r="F15">
-        <v>0.9757080828663676</v>
+        <v>0.9968752312497444</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046075691380138</v>
+        <v>1.048060129525918</v>
       </c>
       <c r="J15">
-        <v>0.9832303217173379</v>
+        <v>0.9848708173755657</v>
       </c>
       <c r="K15">
-        <v>1.0354218629426</v>
+        <v>1.033608434236134</v>
       </c>
       <c r="L15">
-        <v>0.9881882530687293</v>
+        <v>0.9833305241021247</v>
       </c>
       <c r="M15">
-        <v>0.9910285559850297</v>
+        <v>1.011784060878323</v>
       </c>
       <c r="N15">
-        <v>0.9846266215522705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9986125078975671</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.019227047508246</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034908687155652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.956219161490262</v>
+        <v>0.9564955579515307</v>
       </c>
       <c r="D16">
-        <v>1.022823394002779</v>
+        <v>1.021131959861315</v>
       </c>
       <c r="E16">
-        <v>0.9765341321315554</v>
+        <v>0.9700997272501972</v>
       </c>
       <c r="F16">
-        <v>0.9799739260273317</v>
+        <v>0.9987672313253392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047004141854464</v>
+        <v>1.048821683074064</v>
       </c>
       <c r="J16">
-        <v>0.9862015802459503</v>
+        <v>0.986465564173831</v>
       </c>
       <c r="K16">
-        <v>1.036756935204072</v>
+        <v>1.035094283000654</v>
       </c>
       <c r="L16">
-        <v>0.9913024344936762</v>
+        <v>0.9849923368622501</v>
       </c>
       <c r="M16">
-        <v>0.9946766499433781</v>
+        <v>1.013122036210233</v>
       </c>
       <c r="N16">
-        <v>0.9876020996088015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9991727475491003</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.020245265062835</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035962398534004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9588973170585721</v>
+        <v>0.9580491888256643</v>
       </c>
       <c r="D17">
-        <v>1.023975310238871</v>
+        <v>1.022375989757669</v>
       </c>
       <c r="E17">
-        <v>0.9788316188773156</v>
+        <v>0.9712745310353817</v>
       </c>
       <c r="F17">
-        <v>0.9826029246193797</v>
+        <v>0.9994602894695155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047570472508342</v>
+        <v>1.049283697795482</v>
       </c>
       <c r="J17">
-        <v>0.9880320869405431</v>
+        <v>0.9872207223411282</v>
       </c>
       <c r="K17">
-        <v>1.037575630549896</v>
+        <v>1.036002740848743</v>
       </c>
       <c r="L17">
-        <v>0.993221273744479</v>
+        <v>0.9858056925623888</v>
       </c>
       <c r="M17">
-        <v>0.9969230220976449</v>
+        <v>1.01347778838853</v>
       </c>
       <c r="N17">
-        <v>0.989435205832863</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9994163353165191</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.020395349924146</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036607293745203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9604427470883943</v>
+        <v>0.9585405062447956</v>
       </c>
       <c r="D18">
-        <v>1.024639981005731</v>
+        <v>1.023127625980183</v>
       </c>
       <c r="E18">
-        <v>0.9801582152323975</v>
+        <v>0.9715877872406501</v>
       </c>
       <c r="F18">
-        <v>0.984120074603241</v>
+        <v>0.999005352235727</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047895117589085</v>
+        <v>1.049565349526274</v>
       </c>
       <c r="J18">
-        <v>0.9890882231387866</v>
+        <v>0.9872667830917865</v>
       </c>
       <c r="K18">
-        <v>1.038046531516263</v>
+        <v>1.036558740779539</v>
       </c>
       <c r="L18">
-        <v>0.9943284648134394</v>
+        <v>0.985915662603754</v>
       </c>
       <c r="M18">
-        <v>0.9982186642301555</v>
+        <v>1.012841276711078</v>
       </c>
       <c r="N18">
-        <v>0.9904928418656485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9993906716910121</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.019650030229026</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036988772198025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9609669278009197</v>
+        <v>0.9580331070963892</v>
       </c>
       <c r="D19">
-        <v>1.024865405549765</v>
+        <v>1.023355270026981</v>
       </c>
       <c r="E19">
-        <v>0.9806083082670539</v>
+        <v>0.9710903926793704</v>
       </c>
       <c r="F19">
-        <v>0.9846346718587049</v>
+        <v>0.9973944212617238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048004858068008</v>
+        <v>1.049646710573687</v>
       </c>
       <c r="J19">
-        <v>0.9894464151774243</v>
+        <v>0.9866364734002324</v>
       </c>
       <c r="K19">
-        <v>1.038205983921904</v>
+        <v>1.036720231999299</v>
       </c>
       <c r="L19">
-        <v>0.9947039865457401</v>
+        <v>0.9853601883075087</v>
       </c>
       <c r="M19">
-        <v>0.9986580089524532</v>
+        <v>1.011193496637575</v>
       </c>
       <c r="N19">
-        <v>0.9908515425780662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9991152970550651</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.018014281197723</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037109338987922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9586117174429062</v>
+        <v>0.9547417626132294</v>
       </c>
       <c r="D20">
-        <v>1.023852470955601</v>
+        <v>1.022246233228502</v>
       </c>
       <c r="E20">
-        <v>0.9785865265285577</v>
+        <v>0.9683368211134202</v>
       </c>
       <c r="F20">
-        <v>0.9823225567499554</v>
+        <v>0.9926795168010852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047510300963146</v>
+        <v>1.049236113229908</v>
       </c>
       <c r="J20">
-        <v>0.9878368967168106</v>
+        <v>0.9841361269416086</v>
       </c>
       <c r="K20">
-        <v>1.03748848094416</v>
+        <v>1.035908872219014</v>
       </c>
       <c r="L20">
-        <v>0.9930166548465045</v>
+        <v>0.982960256109972</v>
       </c>
       <c r="M20">
-        <v>0.9966835316823881</v>
+        <v>1.006852321137272</v>
       </c>
       <c r="N20">
-        <v>0.9892397384166244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9981502472017896</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.0140371774625</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036539590958871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.950753816930723</v>
+        <v>0.9488905914817433</v>
       </c>
       <c r="D21">
-        <v>1.02047335293153</v>
+        <v>1.018561762570791</v>
       </c>
       <c r="E21">
-        <v>0.9718514237607906</v>
+        <v>0.9637332725668051</v>
       </c>
       <c r="F21">
-        <v>0.9746099441266106</v>
+        <v>0.9882045586896352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045834897140885</v>
+        <v>1.047849518512412</v>
       </c>
       <c r="J21">
-        <v>0.982465223557158</v>
+        <v>0.9806922834626037</v>
       </c>
       <c r="K21">
-        <v>1.03507696226117</v>
+        <v>1.033199807862704</v>
       </c>
       <c r="L21">
-        <v>0.9873864505712803</v>
+        <v>0.9794359200629695</v>
       </c>
       <c r="M21">
-        <v>0.9900888512955702</v>
+        <v>1.0034128989722</v>
       </c>
       <c r="N21">
-        <v>0.9838604368649456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9969065337256092</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.011272855668492</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034627420902551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9456480673968305</v>
+        <v>0.9452019436153152</v>
       </c>
       <c r="D22">
-        <v>1.018280308213763</v>
+        <v>1.016211729832292</v>
       </c>
       <c r="E22">
-        <v>0.9674840683244262</v>
+        <v>0.9608491771326364</v>
       </c>
       <c r="F22">
-        <v>0.9696008891309593</v>
+        <v>0.9855191939830075</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044728011651297</v>
+        <v>1.046951810210822</v>
       </c>
       <c r="J22">
-        <v>0.9789741147634647</v>
+        <v>0.9785510074355274</v>
       </c>
       <c r="K22">
-        <v>1.033498123497064</v>
+        <v>1.031468728027043</v>
       </c>
       <c r="L22">
-        <v>0.9837284152828623</v>
+        <v>0.9772382701765072</v>
       </c>
       <c r="M22">
-        <v>0.9857996084790749</v>
+        <v>1.001383082121691</v>
       </c>
       <c r="N22">
-        <v>0.9803643702963291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9961354489458487</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.00966632094481</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033389965836677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.948371143190754</v>
+        <v>0.9471663825982862</v>
       </c>
       <c r="D23">
-        <v>1.019449545054495</v>
+        <v>1.017515413763638</v>
       </c>
       <c r="E23">
-        <v>0.9698124454240968</v>
+        <v>0.9623842196700567</v>
       </c>
       <c r="F23">
-        <v>0.9722721033129634</v>
+        <v>0.9869479907655148</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045319979359193</v>
+        <v>1.047457812287321</v>
       </c>
       <c r="J23">
-        <v>0.9808360885414951</v>
+        <v>0.9796914620778425</v>
       </c>
       <c r="K23">
-        <v>1.034341179466653</v>
+        <v>1.032442726050403</v>
       </c>
       <c r="L23">
-        <v>0.9856793029690087</v>
+        <v>0.9784084963081509</v>
       </c>
       <c r="M23">
-        <v>0.9880875362243557</v>
+        <v>1.002463598699259</v>
       </c>
       <c r="N23">
-        <v>0.9822289882906957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9965461929732145</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.01052151554639</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034068981742208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9587408190454534</v>
+        <v>0.9547056743657337</v>
       </c>
       <c r="D24">
-        <v>1.023907999024418</v>
+        <v>1.022379448430008</v>
       </c>
       <c r="E24">
-        <v>0.9786973147774334</v>
+        <v>0.9682950681683006</v>
       </c>
       <c r="F24">
-        <v>0.9824492931582353</v>
+        <v>0.9924598616585685</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047537507441936</v>
+        <v>1.049295374499285</v>
       </c>
       <c r="J24">
-        <v>0.9879251304234057</v>
+        <v>0.9840661173555019</v>
       </c>
       <c r="K24">
-        <v>1.037527880558565</v>
+        <v>1.036024632562382</v>
       </c>
       <c r="L24">
-        <v>0.9931091504097797</v>
+        <v>0.9829028144791978</v>
       </c>
       <c r="M24">
-        <v>0.9967917921823058</v>
+        <v>1.006620697233949</v>
       </c>
       <c r="N24">
-        <v>0.9893280974252033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.998120362035516</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.013811716647637</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036594058347645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9701251333070807</v>
+        <v>0.9630840576767437</v>
       </c>
       <c r="D25">
-        <v>1.028799846543127</v>
+        <v>1.027667473555822</v>
       </c>
       <c r="E25">
-        <v>0.9884829451555383</v>
+        <v>0.9749004626208886</v>
       </c>
       <c r="F25">
-        <v>0.9936249883703627</v>
+        <v>0.99863906198365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049888679348149</v>
+        <v>1.051207802065179</v>
       </c>
       <c r="J25">
-        <v>0.9957014999563781</v>
+        <v>0.9889210226421805</v>
       </c>
       <c r="K25">
-        <v>1.040966947106615</v>
+        <v>1.039850950245993</v>
       </c>
       <c r="L25">
-        <v>1.001262718954511</v>
+        <v>0.9879013278409007</v>
       </c>
       <c r="M25">
-        <v>1.006323080931115</v>
+        <v>1.011258541563161</v>
       </c>
       <c r="N25">
-        <v>0.9971155102948747</v>
+        <v>0.999863971634934</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.017482392021205</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039296591442814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9694968824040676</v>
+        <v>0.9710073189596755</v>
       </c>
       <c r="D2">
-        <v>1.031715706119801</v>
+        <v>1.032671052550762</v>
       </c>
       <c r="E2">
-        <v>0.9799828013711949</v>
+        <v>0.9812823756558412</v>
       </c>
       <c r="F2">
-        <v>1.003408351595233</v>
+        <v>1.004062652559004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052614864844927</v>
+        <v>1.053100012515649</v>
       </c>
       <c r="J2">
-        <v>0.9926298529485162</v>
+        <v>0.9940911811521334</v>
       </c>
       <c r="K2">
-        <v>1.042750189770582</v>
+        <v>1.04369324518314</v>
       </c>
       <c r="L2">
-        <v>0.9917282358735571</v>
+        <v>0.9930087862379025</v>
       </c>
       <c r="M2">
-        <v>1.014820406021586</v>
+        <v>1.015465676864731</v>
       </c>
       <c r="N2">
-        <v>1.001192782754528</v>
+        <v>1.005399348636934</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.020301456885944</v>
+        <v>1.02081216015485</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041298369632937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041973922719034</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02168279696274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9740097025127753</v>
+        <v>0.9754336892039354</v>
       </c>
       <c r="D3">
-        <v>1.034439458255106</v>
+        <v>1.034642566585707</v>
       </c>
       <c r="E3">
-        <v>0.9835734474757747</v>
+        <v>0.9848003406151677</v>
       </c>
       <c r="F3">
-        <v>1.006786073816796</v>
+        <v>1.00740213415333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053507996487437</v>
+        <v>1.053611245033863</v>
       </c>
       <c r="J3">
-        <v>0.9952348690385588</v>
+        <v>0.9966172218779275</v>
       </c>
       <c r="K3">
-        <v>1.044649856380049</v>
+        <v>1.044850576411986</v>
       </c>
       <c r="L3">
-        <v>0.9944209152111908</v>
+        <v>0.9956314704729414</v>
       </c>
       <c r="M3">
-        <v>1.017332855703094</v>
+        <v>1.017941171350138</v>
       </c>
       <c r="N3">
-        <v>1.002124030703187</v>
+        <v>1.006120545085207</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.022289947248126</v>
+        <v>1.022771400703563</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042638935470448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042789322417292</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022177452463835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9768673404574145</v>
+        <v>0.9782376022872104</v>
       </c>
       <c r="D4">
-        <v>1.036133409336444</v>
+        <v>1.035879113606279</v>
       </c>
       <c r="E4">
-        <v>0.9858532923693689</v>
+        <v>0.9870348960459027</v>
       </c>
       <c r="F4">
-        <v>1.00893443788785</v>
+        <v>1.00952676656976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054042170556441</v>
+        <v>1.053912814557926</v>
       </c>
       <c r="J4">
-        <v>0.9968818813006854</v>
+        <v>0.9982148642441163</v>
       </c>
       <c r="K4">
-        <v>1.045814450626915</v>
+        <v>1.045562967168456</v>
       </c>
       <c r="L4">
-        <v>0.9961255085673676</v>
+        <v>0.9972923587798713</v>
       </c>
       <c r="M4">
-        <v>1.01892621493101</v>
+        <v>1.019511555773415</v>
       </c>
       <c r="N4">
-        <v>1.00271176662698</v>
+        <v>1.006575844610329</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.023551016015722</v>
+        <v>1.024014285127352</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043463288865272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043294011146812</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022474858616132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9780542853366568</v>
+        <v>0.9794024617851979</v>
       </c>
       <c r="D5">
-        <v>1.036820365902871</v>
+        <v>1.036388149721047</v>
       </c>
       <c r="E5">
-        <v>0.9868016689979584</v>
+        <v>0.9879646282129591</v>
       </c>
       <c r="F5">
-        <v>1.009828998048835</v>
+        <v>1.010411578795087</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054251776611012</v>
+        <v>1.054031852894685</v>
       </c>
       <c r="J5">
-        <v>0.9975653321433652</v>
+        <v>0.9988779551756582</v>
       </c>
       <c r="K5">
-        <v>1.046279834987323</v>
+        <v>1.045852273277077</v>
       </c>
       <c r="L5">
-        <v>0.9968333669413852</v>
+        <v>0.9979822048399377</v>
       </c>
       <c r="M5">
-        <v>1.019588563744784</v>
+        <v>1.020164458319757</v>
       </c>
       <c r="N5">
-        <v>1.0029553943301</v>
+        <v>1.006764604308947</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.024075233207698</v>
+        <v>1.024531025703505</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043799485926269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043506409279757</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022589975024446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9782527491874543</v>
+        <v>0.9795972459380931</v>
       </c>
       <c r="D6">
-        <v>1.036923559183466</v>
+        <v>1.036471139541299</v>
       </c>
       <c r="E6">
-        <v>0.9869603250628928</v>
+        <v>0.9881201763729304</v>
       </c>
       <c r="F6">
-        <v>1.009978702231071</v>
+        <v>1.010559659299083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054280661119951</v>
+        <v>1.054050446324456</v>
       </c>
       <c r="J6">
-        <v>0.9976795696782922</v>
+        <v>0.9989887968216216</v>
       </c>
       <c r="K6">
-        <v>1.046345994442321</v>
+        <v>1.045898424968658</v>
       </c>
       <c r="L6">
-        <v>0.9969517142314399</v>
+        <v>0.9980975484539364</v>
       </c>
       <c r="M6">
-        <v>1.019699342265179</v>
+        <v>1.020273662884457</v>
       </c>
       <c r="N6">
-        <v>1.002996100535755</v>
+        <v>1.006796144627616</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.02416290903271</v>
+        <v>1.024617455761014</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043854965548817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043548600658719</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022603430980409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.976883256375992</v>
+        <v>0.9782651610954739</v>
       </c>
       <c r="D7">
-        <v>1.036111273391725</v>
+        <v>1.035880105727482</v>
       </c>
       <c r="E7">
-        <v>0.9858660037363475</v>
+        <v>0.9870582567316687</v>
       </c>
       <c r="F7">
-        <v>1.008946424489774</v>
+        <v>1.00954378333003</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054029050242699</v>
+        <v>1.053911458719176</v>
       </c>
       <c r="J7">
-        <v>0.996891048410788</v>
+        <v>0.9982353736258873</v>
       </c>
       <c r="K7">
-        <v>1.045789697503903</v>
+        <v>1.045561085549753</v>
       </c>
       <c r="L7">
-        <v>0.9961350010304733</v>
+        <v>0.9973123732966344</v>
       </c>
       <c r="M7">
-        <v>1.01893509441483</v>
+        <v>1.019525408687386</v>
       </c>
       <c r="N7">
-        <v>1.002715035448619</v>
+        <v>1.006608165478647</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.023558043702273</v>
+        <v>1.024025249038358</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043465798598075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043314665332055</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022461002798823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9710352818041537</v>
+        <v>0.9725531105850515</v>
       </c>
       <c r="D8">
-        <v>1.03260585356644</v>
+        <v>1.033335368472088</v>
       </c>
       <c r="E8">
-        <v>0.9812055118255798</v>
+        <v>0.9825141128087393</v>
       </c>
       <c r="F8">
-        <v>1.004557769386477</v>
+        <v>1.005214986479524</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052903121643441</v>
+        <v>1.053273713372082</v>
       </c>
       <c r="J8">
-        <v>0.9935184033499268</v>
+        <v>0.9949885942815146</v>
       </c>
       <c r="K8">
-        <v>1.043361553493803</v>
+        <v>1.044081957631537</v>
       </c>
       <c r="L8">
-        <v>0.9926462320148454</v>
+        <v>0.9939362694201459</v>
       </c>
       <c r="M8">
-        <v>1.015676354714089</v>
+        <v>1.016324777812898</v>
       </c>
       <c r="N8">
-        <v>1.001510635971261</v>
+        <v>1.005736428406127</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.020978902249435</v>
+        <v>1.021492099869507</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04175346688005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042273806848243</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021833320647144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9602259581434257</v>
+        <v>0.9619635727494553</v>
       </c>
       <c r="D9">
-        <v>1.025947010716044</v>
+        <v>1.028560056392764</v>
       </c>
       <c r="E9">
-        <v>0.9726427993667475</v>
+        <v>0.9741359681164053</v>
       </c>
       <c r="F9">
-        <v>0.996524668613749</v>
+        <v>0.9972793113494093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050606670493543</v>
+        <v>1.051931032202241</v>
       </c>
       <c r="J9">
-        <v>0.9872658861201588</v>
+        <v>0.9889348899779953</v>
       </c>
       <c r="K9">
-        <v>1.038632689353241</v>
+        <v>1.041206158333063</v>
       </c>
       <c r="L9">
-        <v>0.9861958907662133</v>
+        <v>0.9876630889991876</v>
       </c>
       <c r="M9">
-        <v>1.009674383424476</v>
+        <v>1.01041668459755</v>
       </c>
       <c r="N9">
-        <v>0.9992700114279575</v>
+        <v>1.004013886565359</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.016228594098217</v>
+        <v>1.016816096138446</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038406695480428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040237012143814</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020579857553932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9528095967524143</v>
+        <v>0.9547582750957039</v>
       </c>
       <c r="D10">
-        <v>1.021101465566069</v>
+        <v>1.025158086322771</v>
       </c>
       <c r="E10">
-        <v>0.9668229245988248</v>
+        <v>0.9684968453098428</v>
       </c>
       <c r="F10">
-        <v>0.991315393749345</v>
+        <v>0.9921624617534782</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048825044833017</v>
+        <v>1.050877976919746</v>
       </c>
       <c r="J10">
-        <v>0.9830292353278736</v>
+        <v>0.984889435897732</v>
       </c>
       <c r="K10">
-        <v>1.035099899453644</v>
+        <v>1.039087490112114</v>
       </c>
       <c r="L10">
-        <v>0.9818182019998453</v>
+        <v>0.9834591885746234</v>
       </c>
       <c r="M10">
-        <v>1.005843242056796</v>
+        <v>1.006674682099205</v>
       </c>
       <c r="N10">
-        <v>0.997753507021752</v>
+        <v>1.002978746114565</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.013249451611499</v>
+        <v>1.013907462878465</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035925579649868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038757395492991</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019615551944092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.950860371579892</v>
+        <v>0.9529429392513034</v>
       </c>
       <c r="D11">
-        <v>1.018835753426407</v>
+        <v>1.023611107198032</v>
       </c>
       <c r="E11">
-        <v>0.9654452073986554</v>
+        <v>0.9672391819856299</v>
       </c>
       <c r="F11">
-        <v>0.9919079601975609</v>
+        <v>0.9928056775043809</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047958405731333</v>
+        <v>1.050373518094455</v>
       </c>
       <c r="J11">
-        <v>0.9824306027776695</v>
+        <v>0.9844133975822945</v>
       </c>
       <c r="K11">
-        <v>1.033410987307601</v>
+        <v>1.038101078556553</v>
       </c>
       <c r="L11">
-        <v>0.9810495846366426</v>
+        <v>0.9828065440504352</v>
       </c>
       <c r="M11">
-        <v>1.006984111198445</v>
+        <v>1.007864555612254</v>
       </c>
       <c r="N11">
-        <v>0.9975955235405244</v>
+        <v>1.003123978452854</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.014600922999931</v>
+        <v>1.015297345298323</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034764279347168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038095864133236</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019138601800667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9506233745625915</v>
+        <v>0.9527435788483483</v>
       </c>
       <c r="D12">
-        <v>1.018013637475623</v>
+        <v>1.023038825077009</v>
       </c>
       <c r="E12">
-        <v>0.9653731017679291</v>
+        <v>0.9672013912355986</v>
       </c>
       <c r="F12">
-        <v>0.9931106715602617</v>
+        <v>0.9940190468356075</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047644802585686</v>
+        <v>1.050185667413607</v>
       </c>
       <c r="J12">
-        <v>0.9826751103751049</v>
+        <v>0.9846918872781418</v>
       </c>
       <c r="K12">
-        <v>1.032803674852104</v>
+        <v>1.037737559260883</v>
       </c>
       <c r="L12">
-        <v>0.9811951890126995</v>
+        <v>0.9829851434126001</v>
       </c>
       <c r="M12">
-        <v>1.008371061260879</v>
+        <v>1.009261736579764</v>
       </c>
       <c r="N12">
-        <v>0.9977342307818673</v>
+        <v>1.003349057428736</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.016032266145169</v>
+        <v>1.016736530803012</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034334889399927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037838851520263</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01897237462762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516786761202516</v>
+        <v>0.9537486643874861</v>
       </c>
       <c r="D13">
-        <v>1.018198012391345</v>
+        <v>1.02316419366891</v>
       </c>
       <c r="E13">
-        <v>0.9662898127055601</v>
+        <v>0.9680737706130463</v>
       </c>
       <c r="F13">
-        <v>0.994880538050738</v>
+        <v>0.9957631318551773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047716200549022</v>
+        <v>1.05022735779213</v>
       </c>
       <c r="J13">
-        <v>0.9835781415204332</v>
+        <v>0.9855478399217804</v>
       </c>
       <c r="K13">
-        <v>1.032941786737803</v>
+        <v>1.037818073877924</v>
       </c>
       <c r="L13">
-        <v>0.9820463379449006</v>
+        <v>0.9837931084209929</v>
       </c>
       <c r="M13">
-        <v>1.010062114474569</v>
+        <v>1.010927647792063</v>
       </c>
       <c r="N13">
-        <v>0.9981075485603685</v>
+        <v>1.003609072971687</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.017651618528807</v>
+        <v>1.018335824830279</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034430044465668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03789305226721</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01901142819507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529833473639515</v>
+        <v>0.9549805732064622</v>
       </c>
       <c r="D14">
-        <v>1.018771207122093</v>
+        <v>1.023564911344706</v>
       </c>
       <c r="E14">
-        <v>0.9673628738255621</v>
+        <v>0.9690823166261455</v>
       </c>
       <c r="F14">
-        <v>0.9963436562073232</v>
+        <v>0.9971929292798093</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04793423915099</v>
+        <v>1.05035858502326</v>
       </c>
       <c r="J14">
-        <v>0.9844905452279459</v>
+        <v>0.9863925492431062</v>
       </c>
       <c r="K14">
-        <v>1.033364117080851</v>
+        <v>1.038072107401975</v>
       </c>
       <c r="L14">
-        <v>0.9829455075383994</v>
+        <v>0.9846296077641788</v>
       </c>
       <c r="M14">
-        <v>1.011351916671182</v>
+        <v>1.012185016353287</v>
       </c>
       <c r="N14">
-        <v>0.9984687532587538</v>
+        <v>1.003803712602987</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.018847394035778</v>
+        <v>1.019505870416009</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03473007202289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03807421417595</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.0191263060664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9535951560500212</v>
+        <v>0.9555570252718419</v>
       </c>
       <c r="D15">
-        <v>1.019108068208946</v>
+        <v>1.023806402067621</v>
       </c>
       <c r="E15">
-        <v>0.9678512132572968</v>
+        <v>0.9695393272461824</v>
       </c>
       <c r="F15">
-        <v>0.9968752312497444</v>
+        <v>0.9977090187912011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048060129525918</v>
+        <v>1.050436485374777</v>
       </c>
       <c r="J15">
-        <v>0.9848708173755657</v>
+        <v>0.9867400244136548</v>
       </c>
       <c r="K15">
-        <v>1.033608434236134</v>
+        <v>1.038223393934405</v>
       </c>
       <c r="L15">
-        <v>0.9833305241021247</v>
+        <v>0.9849842243064719</v>
       </c>
       <c r="M15">
-        <v>1.011784060878323</v>
+        <v>1.012602100687936</v>
       </c>
       <c r="N15">
-        <v>0.9986125078975671</v>
+        <v>1.003865836100942</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.019227047508246</v>
+        <v>1.019873603403107</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034908687155652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038187592030952</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019190241675908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564955579515307</v>
+        <v>0.9582993018209329</v>
       </c>
       <c r="D16">
-        <v>1.021131959861315</v>
+        <v>1.025224592670646</v>
       </c>
       <c r="E16">
-        <v>0.9700997272501972</v>
+        <v>0.9716482215191574</v>
       </c>
       <c r="F16">
-        <v>0.9987672313253392</v>
+        <v>0.9995342013403898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048821683074064</v>
+        <v>1.05089292171321</v>
       </c>
       <c r="J16">
-        <v>0.986465564173831</v>
+        <v>0.9881885564464523</v>
       </c>
       <c r="K16">
-        <v>1.035094283000654</v>
+        <v>1.03911748479336</v>
       </c>
       <c r="L16">
-        <v>0.9849923368622501</v>
+        <v>0.9865107183399355</v>
       </c>
       <c r="M16">
-        <v>1.013122036210233</v>
+        <v>1.013875168530508</v>
       </c>
       <c r="N16">
-        <v>0.9991727475491003</v>
+        <v>1.004058126575402</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.020245265062835</v>
+        <v>1.020840537394362</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035962398534004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038823190877619</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019594419368369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9580491888256643</v>
+        <v>0.9597824212439251</v>
       </c>
       <c r="D17">
-        <v>1.022375989757669</v>
+        <v>1.02610049292616</v>
       </c>
       <c r="E17">
-        <v>0.9712745310353817</v>
+        <v>0.9727611399993265</v>
       </c>
       <c r="F17">
-        <v>0.9994602894695155</v>
+        <v>1.000198587308015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049283697795482</v>
+        <v>1.051169341390336</v>
       </c>
       <c r="J17">
-        <v>0.9872207223411282</v>
+        <v>0.9888789235893657</v>
       </c>
       <c r="K17">
-        <v>1.036002740848743</v>
+        <v>1.039665855848843</v>
       </c>
       <c r="L17">
-        <v>0.9858056925623888</v>
+        <v>0.98726423778846</v>
       </c>
       <c r="M17">
-        <v>1.01347778838853</v>
+        <v>1.014203135465214</v>
       </c>
       <c r="N17">
-        <v>0.9994163353165191</v>
+        <v>1.004137281429827</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.020395349924146</v>
+        <v>1.020968719492774</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036607293745203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039213727079841</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019840528138042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9585405062447956</v>
+        <v>0.9602552954337354</v>
       </c>
       <c r="D18">
-        <v>1.023127625980183</v>
+        <v>1.026616761863988</v>
       </c>
       <c r="E18">
-        <v>0.9715877872406501</v>
+        <v>0.9730581241944523</v>
       </c>
       <c r="F18">
-        <v>0.999005352235727</v>
+        <v>0.9997384347770645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049565349526274</v>
+        <v>1.051332223212469</v>
       </c>
       <c r="J18">
-        <v>0.9872667830917865</v>
+        <v>0.9889087135412361</v>
       </c>
       <c r="K18">
-        <v>1.036558740779539</v>
+        <v>1.0399913447392</v>
       </c>
       <c r="L18">
-        <v>0.985915662603754</v>
+        <v>0.9873587000876698</v>
       </c>
       <c r="M18">
-        <v>1.012841276711078</v>
+        <v>1.013561684705347</v>
       </c>
       <c r="N18">
-        <v>0.9993906716910121</v>
+        <v>1.004070110094333</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.019650030229026</v>
+        <v>1.020219618231463</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036988772198025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039431138100372</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019997097556994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9580331070963892</v>
+        <v>0.9597678385767785</v>
       </c>
       <c r="D19">
-        <v>1.023355270026981</v>
+        <v>1.026784025111737</v>
       </c>
       <c r="E19">
-        <v>0.9710903926793704</v>
+        <v>0.972577748750532</v>
       </c>
       <c r="F19">
-        <v>0.9973944212617238</v>
+        <v>0.9981401877084516</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049646710573687</v>
+        <v>1.051383138267903</v>
       </c>
       <c r="J19">
-        <v>0.9866364734002324</v>
+        <v>0.9882978264819541</v>
       </c>
       <c r="K19">
-        <v>1.036720231999299</v>
+        <v>1.040093756920901</v>
       </c>
       <c r="L19">
-        <v>0.9853601883075087</v>
+        <v>0.9868200424014237</v>
       </c>
       <c r="M19">
-        <v>1.011193496637575</v>
+        <v>1.011926385077386</v>
       </c>
       <c r="N19">
-        <v>0.9991152970550651</v>
+        <v>1.003844003760993</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.018014281197723</v>
+        <v>1.018593934447297</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037109338987922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039510529466251</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020037904683708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9547417626132294</v>
+        <v>0.9566005300538243</v>
       </c>
       <c r="D20">
-        <v>1.022246233228502</v>
+        <v>1.026007846042965</v>
       </c>
       <c r="E20">
-        <v>0.9683368211134202</v>
+        <v>0.9699315622949657</v>
       </c>
       <c r="F20">
-        <v>0.9926795168010852</v>
+        <v>0.9934872819766639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049236113229908</v>
+        <v>1.051140467577269</v>
       </c>
       <c r="J20">
-        <v>0.9841361269416086</v>
+        <v>0.9859133894048271</v>
       </c>
       <c r="K20">
-        <v>1.035908872219014</v>
+        <v>1.039608291675256</v>
       </c>
       <c r="L20">
-        <v>0.982960256109972</v>
+        <v>0.9845245698563525</v>
       </c>
       <c r="M20">
-        <v>1.006852321137272</v>
+        <v>1.007645624599897</v>
       </c>
       <c r="N20">
-        <v>0.9981502472017896</v>
+        <v>1.003170031740435</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.0140371774625</v>
+        <v>1.014665014823547</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036539590958871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039171569203108</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019815635694112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9488905914817433</v>
+        <v>0.9510901937601746</v>
       </c>
       <c r="D21">
-        <v>1.018561762570791</v>
+        <v>1.023434547462025</v>
       </c>
       <c r="E21">
-        <v>0.9637332725668051</v>
+        <v>0.965631401532086</v>
       </c>
       <c r="F21">
-        <v>0.9882045586896352</v>
+        <v>0.98916268854772</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047849518512412</v>
+        <v>1.050313735026769</v>
       </c>
       <c r="J21">
-        <v>0.9806922834626037</v>
+        <v>0.9827853551055337</v>
       </c>
       <c r="K21">
-        <v>1.033199807862704</v>
+        <v>1.037985142675742</v>
       </c>
       <c r="L21">
-        <v>0.9794359200629695</v>
+        <v>0.98129452363368</v>
       </c>
       <c r="M21">
-        <v>1.0034128989722</v>
+        <v>1.004352327569075</v>
       </c>
       <c r="N21">
-        <v>0.9969065337256092</v>
+        <v>1.002700501688672</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.011272855668492</v>
+        <v>1.012016381822469</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034627420902551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03802749301011</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019074662490794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9452019436153152</v>
+        <v>0.9476191951093631</v>
       </c>
       <c r="D22">
-        <v>1.016211729832292</v>
+        <v>1.021787310649301</v>
       </c>
       <c r="E22">
-        <v>0.9608491771326364</v>
+        <v>0.9629417586346866</v>
       </c>
       <c r="F22">
-        <v>0.9855191939830075</v>
+        <v>0.9865731064826655</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046951810210822</v>
+        <v>1.04976953423651</v>
       </c>
       <c r="J22">
-        <v>0.9785510074355274</v>
+        <v>0.9808439238956257</v>
       </c>
       <c r="K22">
-        <v>1.031468728027043</v>
+        <v>1.036939169674673</v>
       </c>
       <c r="L22">
-        <v>0.9772382701765072</v>
+        <v>0.9792849139613076</v>
       </c>
       <c r="M22">
-        <v>1.001383082121691</v>
+        <v>1.002415329321121</v>
       </c>
       <c r="N22">
-        <v>0.9961354489458487</v>
+        <v>1.002411275519438</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.00966632094481</v>
+        <v>1.010483311888728</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033389965836677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03727321145127</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018606953098896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9471663825982862</v>
+        <v>0.9494470076135552</v>
       </c>
       <c r="D23">
-        <v>1.017515413763638</v>
+        <v>1.022680137914083</v>
       </c>
       <c r="E23">
-        <v>0.9623842196700567</v>
+        <v>0.964353873712952</v>
       </c>
       <c r="F23">
-        <v>0.9869479907655148</v>
+        <v>0.9879418464446172</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047457812287321</v>
+        <v>1.050068838996475</v>
       </c>
       <c r="J23">
-        <v>0.9796914620778425</v>
+        <v>0.9818584389908441</v>
       </c>
       <c r="K23">
-        <v>1.032442726050403</v>
+        <v>1.037512571067802</v>
       </c>
       <c r="L23">
-        <v>0.9784084963081509</v>
+        <v>0.9803360963973493</v>
       </c>
       <c r="M23">
-        <v>1.002463598699259</v>
+        <v>1.003437573651363</v>
       </c>
       <c r="N23">
-        <v>0.9965461929732145</v>
+        <v>1.002519118245749</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.01052151554639</v>
+        <v>1.01129238485849</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034068981742208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037668093946666</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018878824005317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9547056743657337</v>
+        <v>0.9565652437441942</v>
       </c>
       <c r="D24">
-        <v>1.022379448430008</v>
+        <v>1.026071666195052</v>
       </c>
       <c r="E24">
-        <v>0.9682950681683006</v>
+        <v>0.9698904311675817</v>
       </c>
       <c r="F24">
-        <v>0.9924598616585685</v>
+        <v>0.9932686585530029</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049295374499285</v>
+        <v>1.051164634717675</v>
       </c>
       <c r="J24">
-        <v>0.9840661173555019</v>
+        <v>0.9858442538570577</v>
       </c>
       <c r="K24">
-        <v>1.036024632562382</v>
+        <v>1.039655897592099</v>
       </c>
       <c r="L24">
-        <v>0.9829028144791978</v>
+        <v>0.9844677743971088</v>
       </c>
       <c r="M24">
-        <v>1.006620697233949</v>
+        <v>1.007415024362781</v>
       </c>
       <c r="N24">
-        <v>0.998120362035516</v>
+        <v>1.003142324991093</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.013811716647637</v>
+        <v>1.014440397469812</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036594058347645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039175293390726</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019860130397933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9630840576767437</v>
+        <v>0.9647476097450687</v>
       </c>
       <c r="D25">
-        <v>1.027667473555822</v>
+        <v>1.029813445269604</v>
       </c>
       <c r="E25">
-        <v>0.9749004626208886</v>
+        <v>0.9763304150659262</v>
       </c>
       <c r="F25">
-        <v>0.99863906198365</v>
+        <v>0.9993609773326312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051207802065179</v>
+        <v>1.052296076515968</v>
       </c>
       <c r="J25">
-        <v>0.9889210226421805</v>
+        <v>0.9905225218156205</v>
       </c>
       <c r="K25">
-        <v>1.039850950245993</v>
+        <v>1.041965926089673</v>
       </c>
       <c r="L25">
-        <v>0.9879013278409007</v>
+        <v>0.9893076311733379</v>
       </c>
       <c r="M25">
-        <v>1.011258541563161</v>
+        <v>1.011969221411081</v>
       </c>
       <c r="N25">
-        <v>0.999863971634934</v>
+        <v>1.004434962359667</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.017482392021205</v>
+        <v>1.018044865976343</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039296591442814</v>
+        <v>1.040805434007913</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020893887186345</v>
       </c>
     </row>
   </sheetData>
